--- a/report/ipb3-32b.xlsx
+++ b/report/ipb3-32b.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="30" windowWidth="23355" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="9465" yWindow="-15" windowWidth="14430" windowHeight="12540" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="He-H2-D2" sheetId="10" r:id="rId1"/>
@@ -13,13 +13,16 @@
     <sheet name="h2" sheetId="3" r:id="rId4"/>
     <sheet name="0.5d2" sheetId="12" r:id="rId5"/>
     <sheet name="d2" sheetId="13" r:id="rId6"/>
+    <sheet name="ipb3-32b-he-121416-12172016" sheetId="14" r:id="rId7"/>
+    <sheet name="ipb3-32b-he-12092016" sheetId="15" r:id="rId8"/>
+    <sheet name="ipb3-32b-h2-121916-12242016" sheetId="16" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="83">
   <si>
     <t>Temp</t>
   </si>
@@ -235,6 +238,39 @@
   </si>
   <si>
     <t>He-H2-D2</t>
+  </si>
+  <si>
+    <t>coreT</t>
+  </si>
+  <si>
+    <t>inT</t>
+  </si>
+  <si>
+    <t>outT</t>
+  </si>
+  <si>
+    <t>v1</t>
+  </si>
+  <si>
+    <t>v2</t>
+  </si>
+  <si>
+    <t>qSP</t>
+  </si>
+  <si>
+    <t>qSV</t>
+  </si>
+  <si>
+    <t>qCur</t>
+  </si>
+  <si>
+    <t>qSetV</t>
+  </si>
+  <si>
+    <t>8.20148972096469e-322</t>
+  </si>
+  <si>
+    <t>v1-v2</t>
   </si>
 </sst>
 </file>
@@ -1124,11 +1160,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="261091840"/>
-        <c:axId val="261092416"/>
+        <c:axId val="140247040"/>
+        <c:axId val="140247616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="261091840"/>
+        <c:axId val="140247040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -1164,12 +1200,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="261092416"/>
+        <c:crossAx val="140247616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="261092416"/>
+        <c:axId val="140247616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -1208,7 +1244,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="261091840"/>
+        <c:crossAx val="140247040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1431,11 +1467,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="347807040"/>
-        <c:axId val="348266496"/>
+        <c:axId val="141650752"/>
+        <c:axId val="141651328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="347807040"/>
+        <c:axId val="141650752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="150"/>
@@ -1446,12 +1482,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="348266496"/>
+        <c:crossAx val="141651328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="348266496"/>
+        <c:axId val="141651328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="45"/>
@@ -1464,7 +1500,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="347807040"/>
+        <c:crossAx val="141650752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1784,11 +1820,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="354555520"/>
-        <c:axId val="354557248"/>
+        <c:axId val="141651904"/>
+        <c:axId val="141652480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="354555520"/>
+        <c:axId val="141651904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -1823,12 +1859,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="354557248"/>
+        <c:crossAx val="141652480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="354557248"/>
+        <c:axId val="141652480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -1867,7 +1903,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="354555520"/>
+        <c:crossAx val="141651904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2194,11 +2230,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="354551488"/>
-        <c:axId val="354553792"/>
+        <c:axId val="141654784"/>
+        <c:axId val="141655360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="354551488"/>
+        <c:axId val="141654784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -2233,12 +2269,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="354553792"/>
+        <c:crossAx val="141655360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="354553792"/>
+        <c:axId val="141655360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -2277,7 +2313,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="354551488"/>
+        <c:crossAx val="141654784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2399,11 +2435,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="348272832"/>
-        <c:axId val="348273408"/>
+        <c:axId val="142255808"/>
+        <c:axId val="142256384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="348272832"/>
+        <c:axId val="142255808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2432,12 +2468,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="348273408"/>
+        <c:crossAx val="142256384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="348273408"/>
+        <c:axId val="142256384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2474,7 +2510,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="348272832"/>
+        <c:crossAx val="142255808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2579,11 +2615,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="348611136"/>
-        <c:axId val="348611712"/>
+        <c:axId val="142258112"/>
+        <c:axId val="142258688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="348611136"/>
+        <c:axId val="142258112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2593,12 +2629,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="348611712"/>
+        <c:crossAx val="142258688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="348611712"/>
+        <c:axId val="142258688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2609,7 +2645,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="348611136"/>
+        <c:crossAx val="142258112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2847,6 +2883,55 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>he!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>350</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>he!$C$23:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>he!$N$23:$N$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.2429050540355795</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2220896136826174</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2855,11 +2940,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="348614016"/>
-        <c:axId val="348614592"/>
+        <c:axId val="142260992"/>
+        <c:axId val="142261568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="348614016"/>
+        <c:axId val="142260992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150"/>
@@ -2889,12 +2974,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="348614592"/>
+        <c:crossAx val="142261568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="348614592"/>
+        <c:axId val="142261568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -2923,8 +3008,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="2.7777777777777776E-2"/>
-              <c:y val="6.6135899679206744E-2"/>
+              <c:x val="2.3807036024015012E-3"/>
+              <c:y val="0.25132108486439197"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2933,13 +3018,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="348614016"/>
+        <c:crossAx val="142260992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3178,11 +3263,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="348616896"/>
-        <c:axId val="348617472"/>
+        <c:axId val="140576448"/>
+        <c:axId val="140577024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="348616896"/>
+        <c:axId val="140576448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150"/>
@@ -3206,19 +3291,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="348617472"/>
+        <c:crossAx val="140577024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="348617472"/>
+        <c:axId val="140577024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -3257,14 +3341,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="348616896"/>
+        <c:crossAx val="140576448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3456,11 +3539,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="348046464"/>
-        <c:axId val="348047040"/>
+        <c:axId val="140579328"/>
+        <c:axId val="140579904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="348046464"/>
+        <c:axId val="140579328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3470,12 +3553,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="348047040"/>
+        <c:crossAx val="140579904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="348047040"/>
+        <c:axId val="140579904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3486,14 +3569,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="348046464"/>
+        <c:crossAx val="140579328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3752,43 +3834,51 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>300-1221</c:v>
+            <c:strRef>
+              <c:f>'h2'!$A$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'h2'!$C$69:$C$71</c:f>
+              <c:f>'h2'!$C$50:$C$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>300</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'h2'!$M$69:$M$71</c:f>
+              <c:f>'h2'!$M$50:$M$52</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.37534399417257425</c:v>
+                  <c:v>0.31021112515600108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64418458337844831</c:v>
+                  <c:v>0.2159022822288853</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.90292112842606487</c:v>
+                  <c:v>0.1219750326040234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3803,11 +3893,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="348049344"/>
-        <c:axId val="348049920"/>
+        <c:axId val="140582208"/>
+        <c:axId val="142606336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="348049344"/>
+        <c:axId val="140582208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -3842,12 +3932,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="348049920"/>
+        <c:crossAx val="142606336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="348049920"/>
+        <c:axId val="142606336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3884,7 +3974,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="348049344"/>
+        <c:crossAx val="140582208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4150,43 +4240,51 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>300-1221</c:v>
+            <c:strRef>
+              <c:f>'h2'!$A$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'h2'!$C$69:$C$71</c:f>
+              <c:f>'h2'!$C$50:$C$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>300</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'h2'!$L$69:$L$71</c:f>
+              <c:f>'h2'!$L$50:$L$52</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.5180355172413975</c:v>
+                  <c:v>1.9478017586206988</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3125760344826958</c:v>
+                  <c:v>1.8398867931034992</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6764836896550968</c:v>
+                  <c:v>1.5163947586206987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4201,11 +4299,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="348052224"/>
-        <c:axId val="348052800"/>
+        <c:axId val="142608640"/>
+        <c:axId val="142609216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="348052224"/>
+        <c:axId val="142608640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -4240,12 +4338,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="348052800"/>
+        <c:crossAx val="142609216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="348052800"/>
+        <c:axId val="142609216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -4284,7 +4382,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="348052224"/>
+        <c:crossAx val="142608640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4610,11 +4708,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="261094720"/>
-        <c:axId val="346472448"/>
+        <c:axId val="140249920"/>
+        <c:axId val="140250496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="261094720"/>
+        <c:axId val="140249920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -4649,12 +4747,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="346472448"/>
+        <c:crossAx val="140250496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="346472448"/>
+        <c:axId val="140250496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -4693,7 +4791,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="261094720"/>
+        <c:crossAx val="140249920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4946,11 +5044,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="348161728"/>
-        <c:axId val="348162304"/>
+        <c:axId val="142611520"/>
+        <c:axId val="142612096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="348161728"/>
+        <c:axId val="142611520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4960,12 +5058,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="348162304"/>
+        <c:crossAx val="142612096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="348162304"/>
+        <c:axId val="142612096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4976,7 +5074,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="348161728"/>
+        <c:crossAx val="142611520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5303,11 +5401,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="348164608"/>
-        <c:axId val="348165184"/>
+        <c:axId val="142663680"/>
+        <c:axId val="142664256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="348164608"/>
+        <c:axId val="142663680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -5335,19 +5433,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="348165184"/>
+        <c:crossAx val="142664256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="348165184"/>
+        <c:axId val="142664256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5384,14 +5481,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="348164608"/>
+        <c:crossAx val="142663680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5709,11 +5805,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="348167488"/>
-        <c:axId val="349478912"/>
+        <c:axId val="142666560"/>
+        <c:axId val="142667136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="348167488"/>
+        <c:axId val="142666560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -5741,19 +5837,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="349478912"/>
+        <c:crossAx val="142667136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="349478912"/>
+        <c:axId val="142667136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -5792,14 +5887,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="348167488"/>
+        <c:crossAx val="142666560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6060,11 +6154,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="349481216"/>
-        <c:axId val="349481792"/>
+        <c:axId val="142669440"/>
+        <c:axId val="142670016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="349481216"/>
+        <c:axId val="142669440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6074,12 +6168,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="349481792"/>
+        <c:crossAx val="142670016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="349481792"/>
+        <c:axId val="142670016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6090,14 +6184,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="349481216"/>
+        <c:crossAx val="142669440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6347,7 +6440,7 @@
                   <c:v>0.61839035888399863</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91499548894677907</c:v>
+                  <c:v>0.98764180459221118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6396,13 +6489,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.34726185064603238</c:v>
+                  <c:v>0.33863831093725277</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45129480824504536</c:v>
+                  <c:v>0.43404288368322586</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.55142715611097592</c:v>
+                  <c:v>0.52934731684807113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6417,11 +6510,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="220558400"/>
-        <c:axId val="220558976"/>
+        <c:axId val="142541376"/>
+        <c:axId val="142541952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="220558400"/>
+        <c:axId val="142541376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -6449,19 +6542,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="220558976"/>
+        <c:crossAx val="142541952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="220558976"/>
+        <c:axId val="142541952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6498,14 +6590,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="220558400"/>
+        <c:crossAx val="142541376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6753,62 +6844,7 @@
                   <c:v>3.1726581379309984</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4289485172412952</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'d2'!$A$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>350</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'d2'!$C$31:$C$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'d2'!$L$31:$L$33</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2.1991520344827009</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.4035755862068982</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.4052096551723992</c:v>
+                  <c:v>3.603010896551698</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6823,11 +6859,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="136806976"/>
-        <c:axId val="136807552"/>
+        <c:axId val="142544256"/>
+        <c:axId val="142544832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="136806976"/>
+        <c:axId val="142544256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -6855,19 +6891,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136807552"/>
+        <c:crossAx val="142544832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="136807552"/>
+        <c:axId val="142544832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -6906,14 +6941,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136806976"/>
+        <c:crossAx val="142544256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6956,210 +6990,210 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'d2'!$A$2:$A$33</c:f>
+              <c:f>'d2'!$A$4:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>149.82353889655201</c:v>
+                  <c:v>149.982915931034</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>149.94936972413799</c:v>
+                  <c:v>149.99876196551699</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>149.982915931034</c:v>
+                  <c:v>150.00012262069001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>149.99876196551699</c:v>
+                  <c:v>149.99923120689701</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>150.00012262069001</c:v>
+                  <c:v>149.99488048275899</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>149.99923120689701</c:v>
+                  <c:v>200.00016310344799</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>149.99488048275899</c:v>
+                  <c:v>200.00474441379299</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>200.00016310344799</c:v>
+                  <c:v>200.00246506896599</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>200.00474441379299</c:v>
+                  <c:v>200.00013365517199</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>200.00246506896599</c:v>
+                  <c:v>200.00018682758599</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>200.00013365517199</c:v>
+                  <c:v>199.99962955172401</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>200.00018682758599</c:v>
+                  <c:v>199.994150724138</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>199.99962955172401</c:v>
+                  <c:v>250.00096924137901</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>199.994150724138</c:v>
+                  <c:v>250.00672186206901</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>250.00096924137901</c:v>
+                  <c:v>250.000803034483</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>250.00672186206901</c:v>
+                  <c:v>250.00049041379299</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>250.000803034483</c:v>
+                  <c:v>250.00201465517199</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>250.00049041379299</c:v>
+                  <c:v>250.00031413793101</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>250.00201465517199</c:v>
+                  <c:v>249.992466896552</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>250.00031413793101</c:v>
+                  <c:v>299.99781220689698</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>249.992466896552</c:v>
+                  <c:v>300.00041041379302</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>299.99781220689698</c:v>
+                  <c:v>299.99958434482801</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>300.00041041379302</c:v>
+                  <c:v>299.99844672413798</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>299.99958434482801</c:v>
+                  <c:v>299.999721034483</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>300.00093451724098</c:v>
+                  <c:v>299.998842413793</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>300.00087672413798</c:v>
+                  <c:v>299.997629034483</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>299.99982637930998</c:v>
+                  <c:v>349.99885717241398</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>299.99572337930999</c:v>
+                  <c:v>349.63436679310303</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>349.99822155172399</c:v>
+                  <c:v>349.90970793103401</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>349.99860568965499</c:v>
+                  <c:v>349.99786693103499</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>349.99969379310301</c:v>
+                  <c:v>350.00710417241402</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>350.00048931034502</c:v>
+                  <c:v>350.00812717241399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'d2'!$I$2:$I$33</c:f>
+              <c:f>'d2'!$I$4:$I$35</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>5.2967870344830033</c:v>
+                  <c:v>21.190850103448014</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.441433586206983</c:v>
+                  <c:v>22.354602689654996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.190850103448014</c:v>
+                  <c:v>22.401535482759002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.354602689654996</c:v>
+                  <c:v>22.442399896552004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.401535482759002</c:v>
+                  <c:v>22.91582655172499</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.442399896552004</c:v>
+                  <c:v>29.151183586206997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.91582655172499</c:v>
+                  <c:v>28.515341862068993</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.151183586206997</c:v>
+                  <c:v>28.414406551724994</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.515341862068993</c:v>
+                  <c:v>28.380193724137996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28.414406551724994</c:v>
+                  <c:v>28.37764199999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28.380193724137996</c:v>
+                  <c:v>28.387846275862017</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28.37764199999998</c:v>
+                  <c:v>28.977656034483005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>28.387846275862017</c:v>
+                  <c:v>34.999854931034008</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28.977656034483005</c:v>
+                  <c:v>34.263520965517017</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>34.999854931034008</c:v>
+                  <c:v>34.291233620690008</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>34.263520965517017</c:v>
+                  <c:v>34.323623103448</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>34.291233620690008</c:v>
+                  <c:v>34.28882151724099</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>34.323623103448</c:v>
+                  <c:v>34.232374034483001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>34.28882151724099</c:v>
+                  <c:v>34.905419724138</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>34.232374034483001</c:v>
+                  <c:v>39.493423931034954</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>34.905419724138</c:v>
+                  <c:v>38.656684620690044</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>39.493423931034954</c:v>
+                  <c:v>38.811175172413982</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>38.656684620690044</c:v>
+                  <c:v>38.898534241378968</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>38.811175172413982</c:v>
+                  <c:v>38.797486413793024</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>37.394370310343959</c:v>
+                  <c:v>38.678911931034008</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>37.286167689654974</c:v>
+                  <c:v>39.46951710344797</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>37.135941103447976</c:v>
+                  <c:v>42.072381413792982</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>37.552222034481986</c:v>
+                  <c:v>40.536209655172001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>40.795376413793008</c:v>
+                  <c:v>40.76486103448201</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>39.862043724138005</c:v>
+                  <c:v>40.507002275862988</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>39.761534551724026</c:v>
+                  <c:v>40.547161068966034</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>39.698803206897026</c:v>
+                  <c:v>40.70211055172399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7174,11 +7208,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="136810432"/>
-        <c:axId val="136811008"/>
+        <c:axId val="142547136"/>
+        <c:axId val="142547712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="136810432"/>
+        <c:axId val="142547136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7188,12 +7222,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136811008"/>
+        <c:crossAx val="142547712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="136811008"/>
+        <c:axId val="142547712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7204,7 +7238,961 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136810432"/>
+        <c:crossAx val="142547136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ipb3-32b-he-121416-12172016'!$T$1:$T$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v1-v2 0.023459975</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.35369217614213389"/>
+                  <c:y val="0.22457277650420279"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ipb3-32b-he-121416-12172016'!$S$3:$S$31</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>150.03261486206901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200.04776000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>250.064629413793</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>300.08206296551703</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>351.11302237931</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ipb3-32b-he-121416-12172016'!$T$3:$T$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0.61149077976192956</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61729869461079012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71605019047618867</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.72904560778444072</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.86084260714284966</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.86814035628742925</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0313060238095115</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0511152095808409</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1156876666666697</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1010765808383303</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.2060940489106702E-2"/>
+                  <c:y val="0.25477630486062658"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ipb3-32b-h2-121916-12242016'!$S$5:$S$26</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>149.97214265517201</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200.001049103448</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>249.99901341379299</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>300.00092917241398</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ipb3-32b-h2-121916-12242016'!$T$5:$T$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.47210810714286922</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59309633233532111</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59544735119047054</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70857449700597996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.72314658333332993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.85212444366197104</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.82468453571429023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="217306752"/>
+        <c:axId val="217307328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="217306752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="350"/>
+          <c:min val="150"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="217307328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="217307328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="217306752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ipb3-32b-he-121416-12172016'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>inT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ipb3-32b-he-121416-12172016'!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>150.015038275862</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150.03261486206901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150.00108762068999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>149.996862448276</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>149.971903206897</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>199.99647572413801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200.04776000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200.00161855172399</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200.005855724138</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>199.96127375862099</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>249.99396331034501</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>250.064629413793</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>249.999463241379</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>249.998811448276</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>249.940586</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>300.00095862069003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>300.08206296551703</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>299.99474465517198</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>300.01947441379298</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>299.90829148275901</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>350.12708789655198</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>351.11302237931</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>348.88156237931003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>351.05023720689701</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>349.57632131034501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ipb3-32b-he-121416-12172016'!$B$2:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>125.61949527586199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>126.288808137931</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>126.59551455172399</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>126.64818179310301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>126.10242272413799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>169.845665310345</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>170.717788137931</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170.84430662068999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>170.89933410344801</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>170.11589627586201</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>214.145629862069</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>215.354825172414</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>215.25066131034501</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>215.342877068966</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>214.29175599999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>260.17678203448298</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>261.820544965517</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>261.47421265517198</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>261.68743262069</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>260.20394789655199</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>308.85481844827598</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>312.541808</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>309.21612027586201</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>312.233826724138</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>308.50159327586198</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ipb3-32b-h2-121916-12242016'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>inT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ipb3-32b-h2-121916-12242016'!$A$4:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>149.92277475862099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>149.97214265517201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>149.997593413793</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>149.99957589655199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>149.999969517241</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>149.99689151724101</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200.000468275862</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200.003202344828</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200.001049103448</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200.000395724138</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200.001257586207</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>200.00030506896599</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>199.996026413793</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>249.999743344828</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>250.003255931035</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>249.99901341379299</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>249.99879410344801</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>249.99924134482799</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>249.998725655172</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>249.996920344828</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>300.00012624137901</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>300.005333172414</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>300.00092917241398</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>300.00080710344798</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>299.99995582758601</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>300.00175737930999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>299.99505096551701</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>350.001217517241</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>349.99964006896602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ipb3-32b-h2-121916-12242016'!$B$4:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>137.120041344828</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131.58386544827599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>129.89335634482799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>129.802524482759</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>129.76824634482799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>129.44320099999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>173.71594613793101</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>174.05008355172399</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>174.09493962069001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>174.084209551724</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>174.089732724138</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>174.092661344828</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>173.75998662069</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>217.82038082758601</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>218.153841310345</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>218.088971344828</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>218.030279275862</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>218.067413241379</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>218.14366406896599</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>217.82610189655199</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>262.97859137930999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>263.36818724137902</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>263.20363420689603</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>263.082726896552</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>263.18269396551699</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>263.32814079310299</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>262.948203275862</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>309.664103551724</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>310.53554872413798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="219577088"/>
+        <c:axId val="219577664"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="219577088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="350"/>
+          <c:min val="150"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="219577664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="219577664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="219577088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'ipb3-32b-he-12092016'!$A$1:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>coreT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150.0021262</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150.0000506</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150.0002177</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150.0041799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150.0005562</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200.0069853</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200.000653</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200.0052763</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200.0010129</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>199.9977948</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>250.000886</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>249.9979658</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>250.000894</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>250.0000372</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>249.995094</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>300.0038778</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>300.0002179</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>300.0049512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ipb3-32b-he-12092016'!$R$1:$R$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="1">
+                  <c:v>2.7373850223221155E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3261366422547303</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3273230694421332</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0193697112908628</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0192264011700338</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2051347730138726E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9743399462838163</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.2050733771056112</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.4125186091679218</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2391383224907701E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9320722764789033E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6539443292163036</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.7616676268792664</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.8546191106014156</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8632242615854375E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6006105164450397E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.687124100816463</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.6794133355503864</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="191587456"/>
+        <c:axId val="191586880"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="191587456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="191586880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="191586880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="191587456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7859,11 +8847,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="346474752"/>
-        <c:axId val="346475328"/>
+        <c:axId val="140252800"/>
+        <c:axId val="140253376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="346474752"/>
+        <c:axId val="140252800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -7898,12 +8886,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="346475328"/>
+        <c:crossAx val="140253376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="346475328"/>
+        <c:axId val="140253376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -7941,13 +8929,459 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="346474752"/>
+        <c:crossAx val="140252800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ipb3-32b-h2-121916-12242016'!$S$5:$S$26</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>149.97214265517201</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200.001049103448</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>249.99901341379299</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>300.00092917241398</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ipb3-32b-h2-121916-12242016'!$T$5:$T$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.47210810714286922</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59309633233532111</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59544735119047054</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70857449700597996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.72314658333332993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.85212444366197104</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.82468453571429023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="163841152"/>
+        <c:axId val="161561920"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="163841152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="161561920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="161561920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="163841152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ipb3-32b-h2-121916-12242016'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>inT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ipb3-32b-h2-121916-12242016'!$A$4:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>149.92277475862099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>149.97214265517201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>149.997593413793</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>149.99957589655199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>149.999969517241</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>149.99689151724101</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200.000468275862</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200.003202344828</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200.001049103448</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200.000395724138</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200.001257586207</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>200.00030506896599</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>199.996026413793</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>249.999743344828</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>250.003255931035</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>249.99901341379299</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>249.99879410344801</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>249.99924134482799</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>249.998725655172</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>249.996920344828</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>300.00012624137901</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>300.005333172414</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>300.00092917241398</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>300.00080710344798</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>299.99995582758601</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>300.00175737930999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>299.99505096551701</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>350.001217517241</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>349.99964006896602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ipb3-32b-h2-121916-12242016'!$B$4:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>137.120041344828</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131.58386544827599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>129.89335634482799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>129.802524482759</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>129.76824634482799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>129.44320099999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>173.71594613793101</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>174.05008355172399</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>174.09493962069001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>174.084209551724</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>174.089732724138</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>174.092661344828</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>173.75998662069</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>217.82038082758601</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>218.153841310345</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>218.088971344828</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>218.030279275862</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>218.067413241379</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>218.14366406896599</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>217.82610189655199</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>262.97859137930999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>263.36818724137902</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>263.20363420689603</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>263.082726896552</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>263.18269396551699</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>263.32814079310299</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>262.948203275862</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>309.664103551724</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>310.53554872413798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="217302720"/>
+        <c:axId val="217302144"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="217302720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="217302144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="217302144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="217302720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
@@ -8227,11 +9661,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="346478784"/>
-        <c:axId val="346479360"/>
+        <c:axId val="141387456"/>
+        <c:axId val="141388032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="346478784"/>
+        <c:axId val="141387456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150"/>
@@ -8262,12 +9696,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="346479360"/>
+        <c:crossAx val="141388032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="346479360"/>
+        <c:axId val="141388032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -8306,7 +9740,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="346478784"/>
+        <c:crossAx val="141387456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8550,11 +9984,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="347350144"/>
-        <c:axId val="347350720"/>
+        <c:axId val="141390336"/>
+        <c:axId val="141390912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="347350144"/>
+        <c:axId val="141390336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="350"/>
@@ -8585,12 +10019,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="347350720"/>
+        <c:crossAx val="141390912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="347350720"/>
+        <c:axId val="141390912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="45"/>
@@ -8629,7 +10063,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="347350144"/>
+        <c:crossAx val="141390336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8823,11 +10257,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="347352448"/>
-        <c:axId val="347353024"/>
+        <c:axId val="141392640"/>
+        <c:axId val="141393216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="347352448"/>
+        <c:axId val="141392640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="350"/>
@@ -8858,12 +10292,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="347353024"/>
+        <c:crossAx val="141393216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="347353024"/>
+        <c:axId val="141393216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="45"/>
@@ -8902,7 +10336,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="347352448"/>
+        <c:crossAx val="141392640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9183,11 +10617,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="347354752"/>
-        <c:axId val="347355328"/>
+        <c:axId val="141182080"/>
+        <c:axId val="141182656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="347354752"/>
+        <c:axId val="141182080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150"/>
@@ -9219,13 +10653,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="347355328"/>
+        <c:crossAx val="141182656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="347355328"/>
+        <c:axId val="141182656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -9264,7 +10698,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="347354752"/>
+        <c:crossAx val="141182080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9626,11 +11060,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="347800128"/>
-        <c:axId val="347800704"/>
+        <c:axId val="141184960"/>
+        <c:axId val="141185536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="347800128"/>
+        <c:axId val="141184960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -9665,12 +11099,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="347800704"/>
+        <c:crossAx val="141185536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="347800704"/>
+        <c:axId val="141185536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -9709,7 +11143,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="347800128"/>
+        <c:crossAx val="141184960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10284,11 +11718,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="347804736"/>
-        <c:axId val="347805312"/>
+        <c:axId val="141648448"/>
+        <c:axId val="141649024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="347804736"/>
+        <c:axId val="141648448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -10300,12 +11734,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="347805312"/>
+        <c:crossAx val="141649024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="347805312"/>
+        <c:axId val="141649024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="45"/>
@@ -10318,7 +11752,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="347804736"/>
+        <c:crossAx val="141648448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10802,16 +12236,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10832,16 +12266,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10929,14 +12363,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>96</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>195263</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>157163</xdr:colOff>
       <xdr:row>113</xdr:row>
       <xdr:rowOff>100014</xdr:rowOff>
     </xdr:to>
@@ -11129,16 +12563,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>226971</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>21751</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>395058</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>435017</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>78442</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>558281</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11186,6 +12620,171 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>138111</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>414337</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>242887</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>547687</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>442912</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>138112</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>395287</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>90487</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11483,7 +13082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView topLeftCell="I16" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
@@ -11561,7 +13160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
@@ -12365,8 +13964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4:Q20"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13091,6 +14690,10 @@
         <f t="shared" si="0"/>
         <v>23.869480482759002</v>
       </c>
+      <c r="N6" s="3">
+        <f t="shared" ref="N6:N26" si="1">(G6-H6)^2</f>
+        <v>0</v>
+      </c>
       <c r="R6" s="3">
         <v>0.95538537931034495</v>
       </c>
@@ -13211,6 +14814,10 @@
         <f t="shared" si="0"/>
         <v>30.15081041379301</v>
       </c>
+      <c r="N7" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="R7" s="3">
         <v>0.95071165517241396</v>
       </c>
@@ -13331,6 +14938,10 @@
         <f t="shared" si="0"/>
         <v>29.329971862069016</v>
       </c>
+      <c r="N8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.50881602629716705</v>
+      </c>
       <c r="R8" s="3">
         <v>48.175678413793101</v>
       </c>
@@ -13467,7 +15078,7 @@
         <v>2.4689840344826983</v>
       </c>
       <c r="N9" s="3">
-        <f>(G9-H9)^2</f>
+        <f t="shared" si="1"/>
         <v>0.52863329204090292</v>
       </c>
       <c r="O9" s="3">
@@ -13610,7 +15221,7 @@
         <v>2.5555058620688982</v>
       </c>
       <c r="N10" s="3">
-        <f>(G10-H10)^2</f>
+        <f t="shared" si="1"/>
         <v>0.51779617041961623</v>
       </c>
       <c r="O10" s="3">
@@ -13744,6 +15355,10 @@
         <f t="shared" si="0"/>
         <v>29.845377482758977</v>
       </c>
+      <c r="N11" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="R11" s="3">
         <v>0.99838937931034499</v>
       </c>
@@ -13864,6 +15479,10 @@
         <f t="shared" si="0"/>
         <v>35.848333448276009</v>
       </c>
+      <c r="N12" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="R12" s="3">
         <v>0.99928255172413805</v>
       </c>
@@ -13984,6 +15603,10 @@
         <f t="shared" si="0"/>
         <v>34.709804241379004</v>
       </c>
+      <c r="N13" s="3">
+        <f t="shared" si="1"/>
+        <v>0.74516377064378136</v>
+      </c>
       <c r="R13" s="3">
         <v>48.166238793103403</v>
       </c>
@@ -14120,7 +15743,7 @@
         <v>2.9268993448275999</v>
       </c>
       <c r="N14" s="3">
-        <f>(G14-H14)^2</f>
+        <f t="shared" si="1"/>
         <v>0.7534234612414723</v>
       </c>
       <c r="O14" s="3">
@@ -14263,7 +15886,7 @@
         <v>2.972035931034501</v>
       </c>
       <c r="N15" s="3">
-        <f>(G15-H15)^2</f>
+        <f t="shared" si="1"/>
         <v>0.7237666443205768</v>
       </c>
       <c r="O15" s="3">
@@ -14397,6 +16020,10 @@
         <f t="shared" si="0"/>
         <v>35.648830000000004</v>
       </c>
+      <c r="N16" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="R16" s="3">
         <v>0.58005358620689695</v>
       </c>
@@ -14517,6 +16144,10 @@
         <f t="shared" si="0"/>
         <v>39.824176586207045</v>
       </c>
+      <c r="N17" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="R17" s="3">
         <v>0.57977765517241397</v>
       </c>
@@ -14637,6 +16268,10 @@
         <f t="shared" si="0"/>
         <v>38.261518000000024</v>
       </c>
+      <c r="N18" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0504774051840202</v>
+      </c>
       <c r="R18" s="3">
         <v>48.155802206896603</v>
       </c>
@@ -14773,7 +16408,7 @@
         <v>3.5516889310345015</v>
       </c>
       <c r="N19" s="3">
-        <f>(G19-H19)^2</f>
+        <f t="shared" si="1"/>
         <v>1.1044462547303406</v>
       </c>
       <c r="O19" s="3">
@@ -14916,7 +16551,7 @@
         <v>3.6061467931035018</v>
       </c>
       <c r="N20" s="3">
-        <f>(G20-H20)^2</f>
+        <f t="shared" si="1"/>
         <v>1.0694115202305525</v>
       </c>
       <c r="O20" s="3">
@@ -15050,6 +16685,10 @@
         <f t="shared" si="0"/>
         <v>39.704343586207017</v>
       </c>
+      <c r="N21" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="R21" s="3">
         <v>0.92928596551724196</v>
       </c>
@@ -15170,6 +16809,10 @@
         <f t="shared" si="0"/>
         <v>41.272269448276006</v>
       </c>
+      <c r="N22" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="R22" s="3">
         <v>0.92999296551724098</v>
       </c>
@@ -15290,6 +16933,10 @@
         <f t="shared" si="0"/>
         <v>38.571214379309993</v>
       </c>
+      <c r="N23" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2429050540355795</v>
+      </c>
       <c r="R23" s="3">
         <v>48.451570379310397</v>
       </c>
@@ -15410,6 +17057,10 @@
         <f t="shared" si="0"/>
         <v>39.665442103448015</v>
       </c>
+      <c r="N24" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2220896136826174</v>
+      </c>
       <c r="R24" s="3">
         <v>48.588592620689703</v>
       </c>
@@ -15649,6 +17300,10 @@
       <c r="I26" s="3">
         <f t="shared" si="0"/>
         <v>41.07472803448303</v>
+      </c>
+      <c r="N26" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="R26" s="3">
         <v>0.99232982758620703</v>
@@ -15752,8 +17407,8 @@
   <dimension ref="A1:AQ103"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O32" sqref="O32"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T118" sqref="T118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26641,7 +28296,7 @@
         <v>21.70760789655202</v>
       </c>
       <c r="J3" s="7">
-        <f t="shared" ref="J3:J28" si="1">(G3-H3)*H3</f>
+        <f t="shared" ref="J3:J27" si="1">(G3-H3)*H3</f>
         <v>3.0245813056769473</v>
       </c>
       <c r="K3" s="7">
@@ -30818,7 +32473,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L26" sqref="L26"/>
+      <selection pane="bottomLeft" activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34098,49 +35753,50 @@
       </c>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A26" s="33">
-        <v>300.00093451724098</v>
-      </c>
-      <c r="B26" s="28">
-        <v>262.60656420689702</v>
-      </c>
-      <c r="C26" s="32">
+      <c r="A26" s="2">
+        <v>299.99844672413798</v>
+      </c>
+      <c r="B26">
+        <v>261.09991248275901</v>
+      </c>
+      <c r="C26">
         <v>100</v>
       </c>
-      <c r="D26" s="28">
-        <v>70.881592137931094</v>
-      </c>
-      <c r="E26" s="28">
-        <v>30.685653275862101</v>
-      </c>
-      <c r="F26" s="28">
-        <v>4.5444844827586204</v>
-      </c>
-      <c r="G26" s="28">
-        <v>9.0133906206896608</v>
-      </c>
-      <c r="H26" s="28">
-        <v>8.0568366551724093</v>
+      <c r="D26">
+        <v>71.710574965517296</v>
+      </c>
+      <c r="E26">
+        <v>30.511590896551699</v>
+      </c>
+      <c r="F26">
+        <v>3.87556881818182</v>
+      </c>
+      <c r="G26">
+        <v>9.1214767272727304</v>
+      </c>
+      <c r="H26" s="3">
+        <f>H19</f>
+        <v>8.1276750344827597</v>
       </c>
       <c r="I26" s="7">
         <f t="shared" si="0"/>
-        <v>37.394370310343959</v>
+        <v>38.898534241378968</v>
       </c>
       <c r="J26" s="7">
         <f t="shared" si="1"/>
-        <v>7.7067990520299166</v>
+        <v>8.0772972077157501</v>
       </c>
       <c r="K26" s="7">
         <f t="shared" si="2"/>
-        <v>0.95655396551725147</v>
+        <v>0.99380169278997066</v>
       </c>
       <c r="L26" s="7">
         <f t="shared" si="7"/>
-        <v>3.4289485172412952</v>
+        <v>3.603010896551698</v>
       </c>
       <c r="M26" s="7">
         <f t="shared" si="3"/>
-        <v>0.91499548894677907</v>
+        <v>0.98764180459221118</v>
       </c>
       <c r="N26" s="3">
         <f>he!O20</f>
@@ -34148,7 +35804,7 @@
       </c>
       <c r="O26" s="3">
         <f>1+($L26-((M26*$N$26)*'ipb3-32-he-dc'!$N$8))/(M26*$N$26)</f>
-        <v>1.0621400080416266</v>
+        <v>1.0437310396356527</v>
       </c>
       <c r="P26" s="22">
         <f>1/N26</f>
@@ -34238,45 +35894,45 @@
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>300.00087672413798</v>
-      </c>
-      <c r="B27" s="3">
-        <v>262.71470903448301</v>
+        <v>299.999721034483</v>
+      </c>
+      <c r="B27">
+        <v>261.20223462068998</v>
       </c>
       <c r="C27">
         <v>150</v>
       </c>
-      <c r="D27" s="3">
-        <v>43.7978807586207</v>
-      </c>
-      <c r="E27" s="3">
-        <v>31.068353827586201</v>
-      </c>
-      <c r="F27" s="3">
-        <v>3.9225823793103398</v>
-      </c>
-      <c r="G27" s="3">
-        <v>9.1359315172413798</v>
-      </c>
-      <c r="H27" s="3">
-        <v>8.3384689655172402</v>
+      <c r="D27">
+        <v>44.225302586206901</v>
+      </c>
+      <c r="E27">
+        <v>30.863021275862099</v>
+      </c>
+      <c r="F27">
+        <v>3.8685346896551698</v>
+      </c>
+      <c r="G27">
+        <v>9.1173972068965607</v>
+      </c>
+      <c r="H27">
+        <v>8.3300692068965496</v>
       </c>
       <c r="I27" s="26">
         <f t="shared" si="0"/>
-        <v>37.286167689654974</v>
+        <v>38.797486413793024</v>
       </c>
       <c r="J27" s="6">
         <f t="shared" si="1"/>
-        <v>6.6496167387139247</v>
+        <v>6.5584967285275395</v>
       </c>
       <c r="K27" s="6">
         <f t="shared" si="2"/>
-        <v>0.7974625517241396</v>
+        <v>0.78732800000001113</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="6">
         <f t="shared" si="3"/>
-        <v>0.63594652140237606</v>
+        <v>0.61988537958401757</v>
       </c>
       <c r="Q27">
         <v>48.074249482758603</v>
@@ -34362,44 +36018,44 @@
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>299.99982637930998</v>
-      </c>
-      <c r="B28" s="3">
-        <v>262.863885275862</v>
+        <v>299.998842413793</v>
+      </c>
+      <c r="B28">
+        <v>261.31993048275899</v>
       </c>
       <c r="C28">
         <v>300</v>
       </c>
-      <c r="D28" s="3">
-        <v>20.074882931034502</v>
-      </c>
-      <c r="E28" s="3">
-        <v>31.704737000000002</v>
-      </c>
-      <c r="F28" s="3">
-        <v>3.0576482413793098</v>
-      </c>
-      <c r="G28" s="3">
-        <v>9.1538026206896603</v>
-      </c>
-      <c r="H28" s="3">
-        <v>8.5472706551724205</v>
+      <c r="D28">
+        <v>20.1833562413793</v>
+      </c>
+      <c r="E28">
+        <v>31.533324034482799</v>
+      </c>
+      <c r="F28">
+        <v>3.0112721034482801</v>
+      </c>
+      <c r="G28">
+        <v>9.1287882758620693</v>
+      </c>
+      <c r="H28">
+        <v>8.53017465517242</v>
       </c>
       <c r="I28" s="26">
         <f t="shared" si="0"/>
-        <v>37.135941103447976</v>
+        <v>38.678911931034008</v>
       </c>
       <c r="J28" s="6">
         <f t="shared" si="1"/>
-        <v>5.1841928702895546</v>
+        <v>5.1062787354478427</v>
       </c>
       <c r="K28" s="6">
         <f t="shared" si="2"/>
-        <v>0.60653196551723987</v>
+        <v>0.5986136206896493</v>
       </c>
       <c r="M28" s="6">
         <f t="shared" si="3"/>
-        <v>0.36788102519420623</v>
+        <v>0.35833826687517134</v>
       </c>
       <c r="Q28">
         <v>48.2324248275862</v>
@@ -34485,32 +36141,32 @@
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>299.99572337930999</v>
-      </c>
-      <c r="B29" s="3">
-        <v>262.44350134482801</v>
+        <v>299.997629034483</v>
+      </c>
+      <c r="B29">
+        <v>260.52811193103503</v>
       </c>
       <c r="C29">
         <v>100</v>
       </c>
-      <c r="D29" s="3">
-        <v>20.208825000000001</v>
-      </c>
-      <c r="E29" s="3">
-        <v>34.203540896551701</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>33.942862275862097</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <v>0</v>
       </c>
       <c r="I29" s="26">
         <f t="shared" si="0"/>
-        <v>37.552222034481986</v>
+        <v>39.46951710344797</v>
       </c>
       <c r="J29" s="6">
         <f t="shared" si="1"/>
@@ -34609,10 +36265,10 @@
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>349.99822155172399</v>
+        <v>349.99885717241398</v>
       </c>
       <c r="B30">
-        <v>309.20284513793098</v>
+        <v>307.926475758621</v>
       </c>
       <c r="C30">
         <v>100</v>
@@ -34621,7 +36277,7 @@
         <v>10</v>
       </c>
       <c r="E30">
-        <v>43.039120896551701</v>
+        <v>42.958235275862101</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -34634,7 +36290,7 @@
       </c>
       <c r="I30" s="26">
         <f t="shared" si="0"/>
-        <v>40.795376413793008</v>
+        <v>42.072381413792982</v>
       </c>
       <c r="J30" s="6">
         <f t="shared" si="1"/>
@@ -34731,49 +36387,49 @@
       </c>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A31" s="33">
-        <v>349.99860568965499</v>
-      </c>
-      <c r="B31" s="32">
-        <v>310.13656196551699</v>
-      </c>
-      <c r="C31" s="32">
+      <c r="A31" s="2">
+        <v>349.63436679310303</v>
+      </c>
+      <c r="B31">
+        <v>309.09815713793103</v>
+      </c>
+      <c r="C31">
         <v>300</v>
       </c>
-      <c r="D31" s="28">
-        <v>20.269817551724099</v>
-      </c>
-      <c r="E31" s="28">
-        <v>40.839968862069</v>
-      </c>
-      <c r="F31" s="28">
-        <v>2.9828865862069001</v>
-      </c>
-      <c r="G31" s="28">
-        <v>9.1742171379310307</v>
-      </c>
-      <c r="H31" s="28">
-        <v>8.5849278620689695</v>
+      <c r="D31">
+        <v>20.1449565172414</v>
+      </c>
+      <c r="E31">
+        <v>33.473911034482803</v>
+      </c>
+      <c r="F31">
+        <v>2.9403851034482802</v>
+      </c>
+      <c r="G31">
+        <v>9.1474025862068995</v>
+      </c>
+      <c r="H31">
+        <v>8.56547620689655</v>
       </c>
       <c r="I31" s="7">
         <f t="shared" si="0"/>
-        <v>39.862043724138005</v>
+        <v>40.536209655172001</v>
       </c>
       <c r="J31" s="7">
         <f t="shared" si="1"/>
-        <v>5.059005923166656</v>
+        <v>4.9844765561482554</v>
       </c>
       <c r="K31" s="7">
         <f t="shared" si="2"/>
-        <v>0.58928927586206115</v>
+        <v>0.58192637931034952</v>
       </c>
       <c r="L31" s="7">
         <f>$E$30-E31</f>
-        <v>2.1991520344827009</v>
+        <v>9.4843242413792979</v>
       </c>
       <c r="M31" s="7">
         <f t="shared" si="3"/>
-        <v>0.34726185064603238</v>
+        <v>0.33863831093725277</v>
       </c>
       <c r="Q31">
         <v>48.4094067931034</v>
@@ -34858,49 +36514,49 @@
       </c>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A32" s="33">
-        <v>349.99969379310301</v>
-      </c>
-      <c r="B32" s="32">
-        <v>310.23815924137898</v>
-      </c>
-      <c r="C32" s="32">
+      <c r="A32" s="2">
+        <v>349.90970793103401</v>
+      </c>
+      <c r="B32">
+        <v>309.144846896552</v>
+      </c>
+      <c r="C32">
         <v>150</v>
       </c>
-      <c r="D32" s="28">
-        <v>43.686912482758601</v>
-      </c>
-      <c r="E32" s="28">
-        <v>40.635545310344803</v>
-      </c>
-      <c r="F32" s="28">
-        <v>3.33013213793103</v>
-      </c>
-      <c r="G32" s="28">
-        <v>9.0735057241379309</v>
-      </c>
-      <c r="H32" s="28">
-        <v>8.4017209310344807</v>
+      <c r="D32">
+        <v>43.430526689655203</v>
+      </c>
+      <c r="E32">
+        <v>40.9474502413793</v>
+      </c>
+      <c r="F32">
+        <v>3.2598277586206899</v>
+      </c>
+      <c r="G32">
+        <v>9.0462171379310305</v>
+      </c>
+      <c r="H32">
+        <v>8.3873978275862093</v>
       </c>
       <c r="I32" s="7">
         <f t="shared" si="0"/>
-        <v>39.761534551724026</v>
+        <v>40.76486103448201</v>
       </c>
       <c r="J32" s="7">
         <f t="shared" si="1"/>
-        <v>5.6441483573679259</v>
+        <v>5.5257796523579978</v>
       </c>
       <c r="K32" s="7">
         <f t="shared" si="2"/>
-        <v>0.67178479310345018</v>
+        <v>0.65881931034482122</v>
       </c>
       <c r="L32" s="7">
         <f t="shared" ref="L32:L33" si="8">$E$30-E32</f>
-        <v>2.4035755862068982</v>
+        <v>2.0107850344828009</v>
       </c>
       <c r="M32" s="7">
         <f t="shared" si="3"/>
-        <v>0.45129480824504536</v>
+        <v>0.43404288368322586</v>
       </c>
       <c r="Q32">
         <v>48.285710586206903</v>
@@ -34985,49 +36641,49 @@
       </c>
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A33" s="33">
-        <v>350.00048931034502</v>
-      </c>
-      <c r="B33" s="32">
-        <v>310.30168610344799</v>
-      </c>
-      <c r="C33" s="32">
+      <c r="A33" s="2">
+        <v>349.99786693103499</v>
+      </c>
+      <c r="B33">
+        <v>309.490864655172</v>
+      </c>
+      <c r="C33">
         <v>100</v>
       </c>
-      <c r="D33" s="28">
-        <v>69.976538620689695</v>
-      </c>
-      <c r="E33" s="28">
-        <v>40.633911241379302</v>
-      </c>
-      <c r="F33" s="28">
-        <v>3.5631444482758599</v>
-      </c>
-      <c r="G33" s="28">
-        <v>8.8775392413793206</v>
-      </c>
-      <c r="H33" s="28">
-        <v>8.1349578275862093</v>
+      <c r="D33">
+        <v>69.651567310344802</v>
+      </c>
+      <c r="E33">
+        <v>40.622270241379297</v>
+      </c>
+      <c r="F33">
+        <v>3.48681420689655</v>
+      </c>
+      <c r="G33">
+        <v>8.8523232413793096</v>
+      </c>
+      <c r="H33">
+        <v>8.1247606551724108</v>
       </c>
       <c r="I33" s="7">
         <f t="shared" si="0"/>
-        <v>39.698803206897026</v>
+        <v>40.507002275862988</v>
       </c>
       <c r="J33" s="7">
         <f t="shared" si="1"/>
-        <v>6.0408684847563041</v>
+        <v>5.9112718745892971</v>
       </c>
       <c r="K33" s="7">
         <f t="shared" si="2"/>
-        <v>0.74258141379311127</v>
+        <v>0.72756258620689884</v>
       </c>
       <c r="L33" s="7">
         <f t="shared" si="8"/>
-        <v>2.4052096551723992</v>
+        <v>2.335965034482804</v>
       </c>
       <c r="M33" s="7">
         <f t="shared" si="3"/>
-        <v>0.55142715611097592</v>
+        <v>0.52934731684807113</v>
       </c>
       <c r="Q33">
         <v>48.051367275862098</v>
@@ -35112,18 +36768,96 @@
       </c>
     </row>
     <row r="34" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
+      <c r="A34" s="2">
+        <v>350.00710417241402</v>
+      </c>
+      <c r="B34">
+        <v>309.45994310344798</v>
+      </c>
+      <c r="C34">
+        <v>150</v>
+      </c>
+      <c r="D34">
+        <v>43.6002976896552</v>
+      </c>
+      <c r="E34">
+        <v>40.534780413793101</v>
+      </c>
+      <c r="F34">
+        <v>3.2850264482758602</v>
+      </c>
+      <c r="G34">
+        <v>9.0706138965517198</v>
+      </c>
+      <c r="H34">
+        <v>8.4081587931034498</v>
+      </c>
+      <c r="I34" s="7">
+        <f t="shared" ref="I34:I35" si="9">A34-B34</f>
+        <v>40.547161068966034</v>
+      </c>
+      <c r="J34" s="7">
+        <f t="shared" ref="J34:J35" si="10">(G34-H34)*H34</f>
+        <v>5.5700277030948264</v>
+      </c>
+      <c r="K34" s="7">
+        <f t="shared" ref="K34:K35" si="11">G34-H34</f>
+        <v>0.66245510344826997</v>
+      </c>
+      <c r="L34" s="7">
+        <f t="shared" ref="L34:L35" si="12">$E$30-E34</f>
+        <v>2.4234548620690006</v>
+      </c>
+      <c r="M34" s="7">
+        <f t="shared" ref="M34:M35" si="13">K34^2</f>
+        <v>0.43884676408465806</v>
+      </c>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
+      <c r="A35" s="2">
+        <v>350.00812717241399</v>
+      </c>
+      <c r="B35">
+        <v>309.30601662069</v>
+      </c>
+      <c r="C35">
+        <v>300</v>
+      </c>
+      <c r="D35">
+        <v>20.1152767241379</v>
+      </c>
+      <c r="E35">
+        <v>40.635805827586204</v>
+      </c>
+      <c r="F35">
+        <v>2.9386575517241398</v>
+      </c>
+      <c r="G35">
+        <v>9.1459265517241395</v>
+      </c>
+      <c r="H35">
+        <v>8.56407820689655</v>
+      </c>
+      <c r="I35" s="7">
+        <f t="shared" si="9"/>
+        <v>40.70211055172399</v>
+      </c>
+      <c r="J35" s="7">
+        <f t="shared" si="10"/>
+        <v>4.982994729656788</v>
+      </c>
+      <c r="K35" s="7">
+        <f t="shared" si="11"/>
+        <v>0.58184834482758951</v>
+      </c>
+      <c r="L35" s="7">
+        <f t="shared" si="12"/>
+        <v>2.3224294482758978</v>
+      </c>
+      <c r="M35" s="7">
+        <f t="shared" si="13"/>
+        <v>0.33854749637860554</v>
+      </c>
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.25">
       <c r="I36" s="6"/>
@@ -35290,4 +37024,4868 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R32" sqref="R32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="17" max="17" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>150.015038275862</v>
+      </c>
+      <c r="B2">
+        <v>125.61949527586199</v>
+      </c>
+      <c r="C2">
+        <v>25.206047344827599</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>65.753424999999893</v>
+      </c>
+      <c r="F2">
+        <v>12.7322476896552</v>
+      </c>
+      <c r="G2">
+        <v>0.103323155145929</v>
+      </c>
+      <c r="H2">
+        <v>0.34027213210445501</v>
+      </c>
+      <c r="I2">
+        <v>0.316812156682028</v>
+      </c>
+      <c r="J2">
+        <v>0.94937334482758595</v>
+      </c>
+      <c r="K2">
+        <v>3.0019999999999998</v>
+      </c>
+      <c r="L2">
+        <v>300.2</v>
+      </c>
+      <c r="M2">
+        <v>3.5939655172413801E-3</v>
+      </c>
+      <c r="N2">
+        <v>300</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>705</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>42718.682372685187</v>
+      </c>
+      <c r="R2">
+        <f>H2-I2</f>
+        <v>2.3459975422427004E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>150.03261486206901</v>
+      </c>
+      <c r="B3">
+        <v>126.288808137931</v>
+      </c>
+      <c r="C3">
+        <v>25.214428517241402</v>
+      </c>
+      <c r="D3">
+        <v>150</v>
+      </c>
+      <c r="E3">
+        <v>42.671437344827602</v>
+      </c>
+      <c r="F3">
+        <v>10.7685475862069</v>
+      </c>
+      <c r="G3">
+        <v>3.0022291845238098</v>
+      </c>
+      <c r="H3">
+        <v>8.9330410773809596</v>
+      </c>
+      <c r="I3">
+        <v>8.3215502976190301</v>
+      </c>
+      <c r="J3">
+        <v>48.416250724137903</v>
+      </c>
+      <c r="K3">
+        <v>57.037999999999997</v>
+      </c>
+      <c r="L3">
+        <v>300.2</v>
+      </c>
+      <c r="M3">
+        <v>0.17659144827586201</v>
+      </c>
+      <c r="N3">
+        <v>300</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>179</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>42718.703206018516</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R31" si="0">H3-I3</f>
+        <v>0.61149077976192956</v>
+      </c>
+      <c r="S3" s="2">
+        <f>A3</f>
+        <v>150.03261486206901</v>
+      </c>
+      <c r="T3">
+        <f>R3</f>
+        <v>0.61149077976192956</v>
+      </c>
+      <c r="U3">
+        <f>B3</f>
+        <v>126.288808137931</v>
+      </c>
+      <c r="V3">
+        <f>T3^2</f>
+        <v>0.37392097373385264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>150.00108762068999</v>
+      </c>
+      <c r="B4">
+        <v>126.59551455172399</v>
+      </c>
+      <c r="C4">
+        <v>25.214785965517201</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>67.314721310344794</v>
+      </c>
+      <c r="F4">
+        <v>10.539615413793101</v>
+      </c>
+      <c r="G4">
+        <v>2.9220730868263498</v>
+      </c>
+      <c r="H4">
+        <v>8.6478917485029996</v>
+      </c>
+      <c r="I4">
+        <v>8.0305930538922095</v>
+      </c>
+      <c r="J4">
+        <v>48.507921172413802</v>
+      </c>
+      <c r="K4">
+        <v>54.036000000000001</v>
+      </c>
+      <c r="L4">
+        <v>300.2</v>
+      </c>
+      <c r="M4">
+        <v>0.17649448275862101</v>
+      </c>
+      <c r="N4">
+        <v>300</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>359</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>42718.744872685187</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>0.61729869461079012</v>
+      </c>
+      <c r="T4">
+        <f>R4</f>
+        <v>0.61729869461079012</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>149.996862448276</v>
+      </c>
+      <c r="B5">
+        <v>126.64818179310301</v>
+      </c>
+      <c r="C5">
+        <v>25.209996689655199</v>
+      </c>
+      <c r="D5">
+        <v>150</v>
+      </c>
+      <c r="E5">
+        <v>42.549073620689697</v>
+      </c>
+      <c r="F5">
+        <v>10.4403350344828</v>
+      </c>
+      <c r="G5">
+        <v>3.02661279761905</v>
+      </c>
+      <c r="H5">
+        <v>8.9451026309523805</v>
+      </c>
+      <c r="I5">
+        <v>8.3290485476190401</v>
+      </c>
+      <c r="J5">
+        <v>48.313232448275897</v>
+      </c>
+      <c r="K5">
+        <v>57.037999999999997</v>
+      </c>
+      <c r="L5">
+        <v>300.2</v>
+      </c>
+      <c r="M5">
+        <v>0.17561268965517199</v>
+      </c>
+      <c r="N5">
+        <v>300</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="P5">
+        <v>179</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>42718.765706018516</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>0.61605408333334033</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>149.971903206897</v>
+      </c>
+      <c r="B6">
+        <v>126.10242272413799</v>
+      </c>
+      <c r="C6">
+        <v>25.202483517241401</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>12.3473244827586</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0.95538537931034495</v>
+      </c>
+      <c r="K6">
+        <v>3.0019999999999998</v>
+      </c>
+      <c r="L6">
+        <v>300.2</v>
+      </c>
+      <c r="M6">
+        <v>3.5976206896551699E-3</v>
+      </c>
+      <c r="N6">
+        <v>300</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <v>179</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>42718.786539351851</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>199.99647572413801</v>
+      </c>
+      <c r="B7">
+        <v>169.845665310345</v>
+      </c>
+      <c r="C7">
+        <v>25.223421103448299</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>18.962953896551699</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0.95071165517241396</v>
+      </c>
+      <c r="K7">
+        <v>3.0019999999999998</v>
+      </c>
+      <c r="L7">
+        <v>300.2</v>
+      </c>
+      <c r="M7">
+        <v>3.5831724137931E-3</v>
+      </c>
+      <c r="N7">
+        <v>300</v>
+      </c>
+      <c r="O7">
+        <v>6</v>
+      </c>
+      <c r="P7">
+        <v>719</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>42718.869872685187</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>200.04776000000001</v>
+      </c>
+      <c r="B8">
+        <v>170.717788137931</v>
+      </c>
+      <c r="C8">
+        <v>25.2280836896552</v>
+      </c>
+      <c r="D8">
+        <v>150</v>
+      </c>
+      <c r="E8">
+        <v>42.527760999999998</v>
+      </c>
+      <c r="F8">
+        <v>16.741481</v>
+      </c>
+      <c r="G8">
+        <v>3.48778197619048</v>
+      </c>
+      <c r="H8">
+        <v>8.9767716547618992</v>
+      </c>
+      <c r="I8">
+        <v>8.2607214642857105</v>
+      </c>
+      <c r="J8">
+        <v>48.175678413793101</v>
+      </c>
+      <c r="K8">
+        <v>57.037344827586203</v>
+      </c>
+      <c r="L8">
+        <v>300.19655172413798</v>
+      </c>
+      <c r="M8">
+        <v>0.17697448275862099</v>
+      </c>
+      <c r="N8">
+        <v>300</v>
+      </c>
+      <c r="O8">
+        <v>7</v>
+      </c>
+      <c r="P8">
+        <v>179</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>42718.890706018516</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>0.71605019047618867</v>
+      </c>
+      <c r="S8" s="2">
+        <f>A8</f>
+        <v>200.04776000000001</v>
+      </c>
+      <c r="T8">
+        <f>R8</f>
+        <v>0.71605019047618867</v>
+      </c>
+      <c r="U8">
+        <f>B8</f>
+        <v>170.717788137931</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>200.00161855172399</v>
+      </c>
+      <c r="B9">
+        <v>170.84430662068999</v>
+      </c>
+      <c r="C9">
+        <v>25.2187262758621</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>67.030094103448306</v>
+      </c>
+      <c r="F9">
+        <v>16.493969862069001</v>
+      </c>
+      <c r="G9">
+        <v>3.43708963473054</v>
+      </c>
+      <c r="H9">
+        <v>8.7233190628742605</v>
+      </c>
+      <c r="I9">
+        <v>7.9942734550898198</v>
+      </c>
+      <c r="J9">
+        <v>48.444088896551698</v>
+      </c>
+      <c r="K9">
+        <v>54.036000000000001</v>
+      </c>
+      <c r="L9">
+        <v>300.2</v>
+      </c>
+      <c r="M9">
+        <v>0.177791689655172</v>
+      </c>
+      <c r="N9">
+        <v>300</v>
+      </c>
+      <c r="O9">
+        <v>8</v>
+      </c>
+      <c r="P9">
+        <v>359</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>42718.932372685187</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>0.72904560778444072</v>
+      </c>
+      <c r="T9">
+        <f>R9</f>
+        <v>0.72904560778444072</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>200.005855724138</v>
+      </c>
+      <c r="B10">
+        <v>170.89933410344801</v>
+      </c>
+      <c r="C10">
+        <v>25.214902655172398</v>
+      </c>
+      <c r="D10">
+        <v>150</v>
+      </c>
+      <c r="E10">
+        <v>42.663851344827599</v>
+      </c>
+      <c r="F10">
+        <v>16.407448034482801</v>
+      </c>
+      <c r="G10">
+        <v>3.5172085833333302</v>
+      </c>
+      <c r="H10">
+        <v>8.9877924166666698</v>
+      </c>
+      <c r="I10">
+        <v>8.2664292976190605</v>
+      </c>
+      <c r="J10">
+        <v>48.326058172413802</v>
+      </c>
+      <c r="K10">
+        <v>57.037999999999997</v>
+      </c>
+      <c r="L10">
+        <v>300.2</v>
+      </c>
+      <c r="M10">
+        <v>0.177347068965517</v>
+      </c>
+      <c r="N10">
+        <v>300</v>
+      </c>
+      <c r="O10">
+        <v>9</v>
+      </c>
+      <c r="P10">
+        <v>179</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>42718.953206018516</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>0.7213631190476093</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>199.96127375862099</v>
+      </c>
+      <c r="B11">
+        <v>170.11589627586201</v>
+      </c>
+      <c r="C11">
+        <v>25.199208689655201</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>18.613719482758601</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.99838937931034499</v>
+      </c>
+      <c r="K11">
+        <v>3.0019999999999998</v>
+      </c>
+      <c r="L11">
+        <v>300.2</v>
+      </c>
+      <c r="M11">
+        <v>3.5758275862069E-3</v>
+      </c>
+      <c r="N11">
+        <v>300</v>
+      </c>
+      <c r="O11">
+        <v>10</v>
+      </c>
+      <c r="P11">
+        <v>179</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>42718.974039351851</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>249.99396331034501</v>
+      </c>
+      <c r="B12">
+        <v>214.145629862069</v>
+      </c>
+      <c r="C12">
+        <v>25.229080413793099</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>25.915461241379301</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0.99928255172413805</v>
+      </c>
+      <c r="K12">
+        <v>3.0019999999999998</v>
+      </c>
+      <c r="L12">
+        <v>300.2</v>
+      </c>
+      <c r="M12">
+        <v>3.5773448275862102E-3</v>
+      </c>
+      <c r="N12">
+        <v>300</v>
+      </c>
+      <c r="O12">
+        <v>11</v>
+      </c>
+      <c r="P12">
+        <v>719</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>42719.057372685187</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>250.064629413793</v>
+      </c>
+      <c r="B13">
+        <v>215.354825172414</v>
+      </c>
+      <c r="C13">
+        <v>25.242499517241399</v>
+      </c>
+      <c r="D13">
+        <v>150</v>
+      </c>
+      <c r="E13">
+        <v>43.808361241379302</v>
+      </c>
+      <c r="F13">
+        <v>23.112337103448301</v>
+      </c>
+      <c r="G13">
+        <v>4.1757874642857198</v>
+      </c>
+      <c r="H13">
+        <v>9.0892406607142799</v>
+      </c>
+      <c r="I13">
+        <v>8.2283980535714303</v>
+      </c>
+      <c r="J13">
+        <v>48.166238793103403</v>
+      </c>
+      <c r="K13">
+        <v>57.030793103448303</v>
+      </c>
+      <c r="L13">
+        <v>300.16206896551699</v>
+      </c>
+      <c r="M13">
+        <v>0.16312768965517199</v>
+      </c>
+      <c r="N13">
+        <v>300</v>
+      </c>
+      <c r="O13">
+        <v>12</v>
+      </c>
+      <c r="P13">
+        <v>179</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>42719.078206018516</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="0"/>
+        <v>0.86084260714284966</v>
+      </c>
+      <c r="S13" s="2">
+        <f>A13</f>
+        <v>250.064629413793</v>
+      </c>
+      <c r="T13">
+        <f>R13</f>
+        <v>0.86084260714284966</v>
+      </c>
+      <c r="U13">
+        <f>B13</f>
+        <v>215.354825172414</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>249.999463241379</v>
+      </c>
+      <c r="B14">
+        <v>215.25066131034501</v>
+      </c>
+      <c r="C14">
+        <v>25.233921275862102</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <v>67.911054758620693</v>
+      </c>
+      <c r="F14">
+        <v>22.988561896551701</v>
+      </c>
+      <c r="G14">
+        <v>4.0559725329341303</v>
+      </c>
+      <c r="H14">
+        <v>8.7903094431137792</v>
+      </c>
+      <c r="I14">
+        <v>7.9221690868263499</v>
+      </c>
+      <c r="J14">
+        <v>47.918833862069</v>
+      </c>
+      <c r="K14">
+        <v>54.0341379310345</v>
+      </c>
+      <c r="L14">
+        <v>300.18965517241401</v>
+      </c>
+      <c r="M14">
+        <v>0.16012020689655199</v>
+      </c>
+      <c r="N14">
+        <v>300</v>
+      </c>
+      <c r="O14">
+        <v>13</v>
+      </c>
+      <c r="P14">
+        <v>359</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>42719.119872685187</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="0"/>
+        <v>0.86814035628742925</v>
+      </c>
+      <c r="T14">
+        <f>R14</f>
+        <v>0.86814035628742925</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>249.998811448276</v>
+      </c>
+      <c r="B15">
+        <v>215.342877068966</v>
+      </c>
+      <c r="C15">
+        <v>25.2314484137931</v>
+      </c>
+      <c r="D15">
+        <v>150</v>
+      </c>
+      <c r="E15">
+        <v>43.078028724137901</v>
+      </c>
+      <c r="F15">
+        <v>22.9434253103448</v>
+      </c>
+      <c r="G15">
+        <v>4.0978382738095203</v>
+      </c>
+      <c r="H15">
+        <v>9.0222683571428597</v>
+      </c>
+      <c r="I15">
+        <v>8.1720900833333303</v>
+      </c>
+      <c r="J15">
+        <v>47.745342034482803</v>
+      </c>
+      <c r="K15">
+        <v>57.0340689655172</v>
+      </c>
+      <c r="L15">
+        <v>300.17931034482802</v>
+      </c>
+      <c r="M15">
+        <v>0.15838258620689699</v>
+      </c>
+      <c r="N15">
+        <v>300</v>
+      </c>
+      <c r="O15">
+        <v>14</v>
+      </c>
+      <c r="P15">
+        <v>179</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>42719.140706018516</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>0.85017827380952937</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>249.940586</v>
+      </c>
+      <c r="B16">
+        <v>214.29175599999999</v>
+      </c>
+      <c r="C16">
+        <v>25.215267482758598</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>25.649041</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0.58005358620689695</v>
+      </c>
+      <c r="K16">
+        <v>3.0019999999999998</v>
+      </c>
+      <c r="L16">
+        <v>300.2</v>
+      </c>
+      <c r="M16">
+        <v>3.5771034482758599E-3</v>
+      </c>
+      <c r="N16">
+        <v>300</v>
+      </c>
+      <c r="O16">
+        <v>15</v>
+      </c>
+      <c r="P16">
+        <v>179</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>42719.161539351851</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>300.00095862069003</v>
+      </c>
+      <c r="B17">
+        <v>260.17678203448298</v>
+      </c>
+      <c r="C17">
+        <v>25.258615896551699</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>33.8098719310345</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0.57977765517241397</v>
+      </c>
+      <c r="K17">
+        <v>3.0019999999999998</v>
+      </c>
+      <c r="L17">
+        <v>300.2</v>
+      </c>
+      <c r="M17">
+        <v>3.5733103448275902E-3</v>
+      </c>
+      <c r="N17">
+        <v>300</v>
+      </c>
+      <c r="O17">
+        <v>16</v>
+      </c>
+      <c r="P17">
+        <v>719</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>42719.244872685187</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>300.08206296551703</v>
+      </c>
+      <c r="B18">
+        <v>261.820544965517</v>
+      </c>
+      <c r="C18">
+        <v>25.268922586206902</v>
+      </c>
+      <c r="D18">
+        <v>150</v>
+      </c>
+      <c r="E18">
+        <v>43.5795823448276</v>
+      </c>
+      <c r="F18">
+        <v>29.739680413793099</v>
+      </c>
+      <c r="G18">
+        <v>4.9374004285714301</v>
+      </c>
+      <c r="H18">
+        <v>9.1498230416666608</v>
+      </c>
+      <c r="I18">
+        <v>8.1185170178571493</v>
+      </c>
+      <c r="J18">
+        <v>48.155802206896603</v>
+      </c>
+      <c r="K18">
+        <v>56.819172413793098</v>
+      </c>
+      <c r="L18">
+        <v>300.13793103448302</v>
+      </c>
+      <c r="M18">
+        <v>0.172156586206897</v>
+      </c>
+      <c r="N18">
+        <v>300</v>
+      </c>
+      <c r="O18">
+        <v>17</v>
+      </c>
+      <c r="P18">
+        <v>179</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>42719.265706018516</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="0"/>
+        <v>1.0313060238095115</v>
+      </c>
+      <c r="S18" s="2">
+        <f>A18</f>
+        <v>300.08206296551703</v>
+      </c>
+      <c r="T18">
+        <f>R18</f>
+        <v>1.0313060238095115</v>
+      </c>
+      <c r="U18">
+        <f>B18</f>
+        <v>261.820544965517</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>299.99474465517198</v>
+      </c>
+      <c r="B19">
+        <v>261.47421265517198</v>
+      </c>
+      <c r="C19">
+        <v>25.266764310344801</v>
+      </c>
+      <c r="D19">
+        <v>100</v>
+      </c>
+      <c r="E19">
+        <v>68.335883827586201</v>
+      </c>
+      <c r="F19">
+        <v>30.258182999999999</v>
+      </c>
+      <c r="G19">
+        <v>4.8437752335329396</v>
+      </c>
+      <c r="H19">
+        <v>8.8675322514970105</v>
+      </c>
+      <c r="I19">
+        <v>7.8164170419161696</v>
+      </c>
+      <c r="J19">
+        <v>47.799319586206899</v>
+      </c>
+      <c r="K19">
+        <v>44.6010689655172</v>
+      </c>
+      <c r="L19">
+        <v>300.10000000000002</v>
+      </c>
+      <c r="M19">
+        <v>0.16995068965517199</v>
+      </c>
+      <c r="N19">
+        <v>300</v>
+      </c>
+      <c r="O19">
+        <v>18</v>
+      </c>
+      <c r="P19">
+        <v>359</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>42719.307372685187</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="0"/>
+        <v>1.0511152095808409</v>
+      </c>
+      <c r="T19">
+        <f>R19</f>
+        <v>1.0511152095808409</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>300.01947441379298</v>
+      </c>
+      <c r="B20">
+        <v>261.68743262069</v>
+      </c>
+      <c r="C20">
+        <v>25.266090896551699</v>
+      </c>
+      <c r="D20">
+        <v>150</v>
+      </c>
+      <c r="E20">
+        <v>44.033930103448299</v>
+      </c>
+      <c r="F20">
+        <v>30.203725137930999</v>
+      </c>
+      <c r="G20">
+        <v>4.9769217976190498</v>
+      </c>
+      <c r="H20">
+        <v>9.1888405535714295</v>
+      </c>
+      <c r="I20">
+        <v>8.1536672083333208</v>
+      </c>
+      <c r="J20">
+        <v>48.133167793103397</v>
+      </c>
+      <c r="K20">
+        <v>28.457758620689599</v>
+      </c>
+      <c r="L20">
+        <v>300.10000000000002</v>
+      </c>
+      <c r="M20">
+        <v>0.17065103448275901</v>
+      </c>
+      <c r="N20">
+        <v>300</v>
+      </c>
+      <c r="O20">
+        <v>19</v>
+      </c>
+      <c r="P20">
+        <v>179</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>42719.328206018516</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="0"/>
+        <v>1.0351733452381087</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>299.90829148275901</v>
+      </c>
+      <c r="B21">
+        <v>260.20394789655199</v>
+      </c>
+      <c r="C21">
+        <v>25.253611586206901</v>
+      </c>
+      <c r="D21">
+        <v>100</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>33.803699034482797</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0.92928596551724196</v>
+      </c>
+      <c r="K21">
+        <v>3.0019999999999998</v>
+      </c>
+      <c r="L21">
+        <v>300.2</v>
+      </c>
+      <c r="M21">
+        <v>3.5777241379310299E-3</v>
+      </c>
+      <c r="N21">
+        <v>300</v>
+      </c>
+      <c r="O21">
+        <v>20</v>
+      </c>
+      <c r="P21">
+        <v>179</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>42719.349039351851</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>350.12708789655198</v>
+      </c>
+      <c r="B22">
+        <v>308.85481844827598</v>
+      </c>
+      <c r="C22">
+        <v>25.318803689655201</v>
+      </c>
+      <c r="D22">
+        <v>100</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>44.107886482758602</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0.92999296551724098</v>
+      </c>
+      <c r="K22">
+        <v>3.0019999999999998</v>
+      </c>
+      <c r="L22">
+        <v>300.2</v>
+      </c>
+      <c r="M22">
+        <v>3.5809310344827598E-3</v>
+      </c>
+      <c r="N22">
+        <v>300</v>
+      </c>
+      <c r="O22">
+        <v>21</v>
+      </c>
+      <c r="P22">
+        <v>720</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>42719.432476851849</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>351.11302237931</v>
+      </c>
+      <c r="B23">
+        <v>312.541808</v>
+      </c>
+      <c r="C23">
+        <v>25.337844758620701</v>
+      </c>
+      <c r="D23">
+        <v>150</v>
+      </c>
+      <c r="E23">
+        <v>44.054183999999999</v>
+      </c>
+      <c r="F23">
+        <v>33.100223689655202</v>
+      </c>
+      <c r="G23">
+        <v>5.33688815476191</v>
+      </c>
+      <c r="H23">
+        <v>9.2269732500000003</v>
+      </c>
+      <c r="I23">
+        <v>8.1112855833333306</v>
+      </c>
+      <c r="J23">
+        <v>48.451570379310397</v>
+      </c>
+      <c r="K23">
+        <v>57.034724137931001</v>
+      </c>
+      <c r="L23">
+        <v>300.18275862068998</v>
+      </c>
+      <c r="M23">
+        <v>0.17685858620689701</v>
+      </c>
+      <c r="N23">
+        <v>300</v>
+      </c>
+      <c r="O23">
+        <v>22</v>
+      </c>
+      <c r="P23">
+        <v>179</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>42719.453321759262</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="0"/>
+        <v>1.1156876666666697</v>
+      </c>
+      <c r="S23" s="2">
+        <f>A23</f>
+        <v>351.11302237931</v>
+      </c>
+      <c r="T23">
+        <f>R23</f>
+        <v>1.1156876666666697</v>
+      </c>
+      <c r="U23">
+        <f>B23</f>
+        <v>312.541808</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>348.88156237931003</v>
+      </c>
+      <c r="B24">
+        <v>309.21612027586201</v>
+      </c>
+      <c r="C24">
+        <v>25.3318904482759</v>
+      </c>
+      <c r="D24">
+        <v>100</v>
+      </c>
+      <c r="E24">
+        <v>68.809582965517293</v>
+      </c>
+      <c r="F24">
+        <v>38.055426586206899</v>
+      </c>
+      <c r="G24">
+        <v>5.0930029041916196</v>
+      </c>
+      <c r="H24">
+        <v>8.9459114401197599</v>
+      </c>
+      <c r="I24">
+        <v>7.8448348592814297</v>
+      </c>
+      <c r="J24">
+        <v>48.588592620689703</v>
+      </c>
+      <c r="K24">
+        <v>54.031034482758699</v>
+      </c>
+      <c r="L24">
+        <v>300.17241379310298</v>
+      </c>
+      <c r="M24">
+        <v>0.17690772413793099</v>
+      </c>
+      <c r="N24">
+        <v>300</v>
+      </c>
+      <c r="O24">
+        <v>23</v>
+      </c>
+      <c r="P24">
+        <v>359</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>42719.494976851849</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="0"/>
+        <v>1.1010765808383303</v>
+      </c>
+      <c r="T24">
+        <f>R24</f>
+        <v>1.1010765808383303</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>351.05023720689701</v>
+      </c>
+      <c r="B25">
+        <v>312.233826724138</v>
+      </c>
+      <c r="C25">
+        <v>25.340511517241399</v>
+      </c>
+      <c r="D25">
+        <v>150</v>
+      </c>
+      <c r="E25">
+        <v>43.930073827586199</v>
+      </c>
+      <c r="F25">
+        <v>36.590267379310298</v>
+      </c>
+      <c r="G25">
+        <v>5.3657673506493504</v>
+      </c>
+      <c r="H25">
+        <v>9.2462223246753208</v>
+      </c>
+      <c r="I25">
+        <v>8.1268437012987</v>
+      </c>
+      <c r="J25">
+        <v>48.4243013793103</v>
+      </c>
+      <c r="K25">
+        <v>57.033413793103399</v>
+      </c>
+      <c r="L25">
+        <v>300.17586206896499</v>
+      </c>
+      <c r="M25">
+        <v>0.17615793103448299</v>
+      </c>
+      <c r="N25">
+        <v>300</v>
+      </c>
+      <c r="O25">
+        <v>24</v>
+      </c>
+      <c r="P25">
+        <v>179</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>42719.515821759262</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="0"/>
+        <v>1.1193786233766208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>349.57632131034501</v>
+      </c>
+      <c r="B26">
+        <v>308.50159327586198</v>
+      </c>
+      <c r="C26">
+        <v>25.3272702068966</v>
+      </c>
+      <c r="D26">
+        <v>100</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <v>45.413731137931002</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0.99232982758620703</v>
+      </c>
+      <c r="K26">
+        <v>3.0019999999999998</v>
+      </c>
+      <c r="L26">
+        <v>300.2</v>
+      </c>
+      <c r="M26">
+        <v>3.58872413793103E-3</v>
+      </c>
+      <c r="N26">
+        <v>300</v>
+      </c>
+      <c r="O26">
+        <v>25</v>
+      </c>
+      <c r="P26">
+        <v>179</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>42719.53665509259</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>391.63385448275898</v>
+      </c>
+      <c r="B27">
+        <v>354.62144951724099</v>
+      </c>
+      <c r="C27">
+        <v>25.389341103448299</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <v>33.324548931034499</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0.99286468965517205</v>
+      </c>
+      <c r="K27">
+        <v>3.0019999999999998</v>
+      </c>
+      <c r="L27">
+        <v>300.2</v>
+      </c>
+      <c r="M27">
+        <v>3.5912413793103498E-3</v>
+      </c>
+      <c r="N27">
+        <v>300</v>
+      </c>
+      <c r="O27">
+        <v>26</v>
+      </c>
+      <c r="P27">
+        <v>347</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>42719.576932870368</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>336.781459448276</v>
+      </c>
+      <c r="B28">
+        <v>333.58417582758602</v>
+      </c>
+      <c r="C28">
+        <v>25.369618827586201</v>
+      </c>
+      <c r="D28">
+        <v>100</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="F28" s="8">
+        <v>1.9906691396544599E-259</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0.53851272413793105</v>
+      </c>
+      <c r="K28">
+        <v>3.0019999999999998</v>
+      </c>
+      <c r="L28">
+        <v>300.2</v>
+      </c>
+      <c r="M28">
+        <v>3.59048275862069E-3</v>
+      </c>
+      <c r="N28">
+        <v>300</v>
+      </c>
+      <c r="O28">
+        <v>16</v>
+      </c>
+      <c r="P28">
+        <v>57</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>42719.583645833336</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>349.988029758621</v>
+      </c>
+      <c r="B29">
+        <v>310.71556355172402</v>
+      </c>
+      <c r="C29">
+        <v>25.336207758620699</v>
+      </c>
+      <c r="D29">
+        <v>100</v>
+      </c>
+      <c r="E29">
+        <v>68.886337999999995</v>
+      </c>
+      <c r="F29">
+        <v>43.805725551724102</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0.94764172413793102</v>
+      </c>
+      <c r="K29">
+        <v>3.62310344827586</v>
+      </c>
+      <c r="L29">
+        <v>300.2</v>
+      </c>
+      <c r="M29">
+        <v>3.62072413793103E-3</v>
+      </c>
+      <c r="N29">
+        <v>300</v>
+      </c>
+      <c r="O29">
+        <v>21</v>
+      </c>
+      <c r="P29">
+        <v>360</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>42719.625428240739</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>348.92529303448299</v>
+      </c>
+      <c r="B30">
+        <v>311.84102968965499</v>
+      </c>
+      <c r="C30">
+        <v>25.362829275862101</v>
+      </c>
+      <c r="D30">
+        <v>150</v>
+      </c>
+      <c r="E30">
+        <v>43.331645000000002</v>
+      </c>
+      <c r="F30">
+        <v>45.921810655172401</v>
+      </c>
+      <c r="G30">
+        <v>5.2114719583333304</v>
+      </c>
+      <c r="H30">
+        <v>9.1343468214285704</v>
+      </c>
+      <c r="I30">
+        <v>8.0345938690476206</v>
+      </c>
+      <c r="J30">
+        <v>48.181175137931</v>
+      </c>
+      <c r="K30">
+        <v>55.898655172413797</v>
+      </c>
+      <c r="L30">
+        <v>300.2</v>
+      </c>
+      <c r="M30">
+        <v>0.17627568965517201</v>
+      </c>
+      <c r="N30">
+        <v>300</v>
+      </c>
+      <c r="O30">
+        <v>22</v>
+      </c>
+      <c r="P30">
+        <v>179</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>42719.646261574075</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="0"/>
+        <v>1.0997529523809497</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>351.31368072413801</v>
+      </c>
+      <c r="B31">
+        <v>316.74717341379301</v>
+      </c>
+      <c r="C31">
+        <v>25.3662997241379</v>
+      </c>
+      <c r="D31">
+        <v>100</v>
+      </c>
+      <c r="E31">
+        <v>67.711069931034501</v>
+      </c>
+      <c r="F31">
+        <v>43.542464172413801</v>
+      </c>
+      <c r="G31">
+        <v>5.0109080658682696</v>
+      </c>
+      <c r="H31">
+        <v>8.8726511137724504</v>
+      </c>
+      <c r="I31">
+        <v>7.7783430389221504</v>
+      </c>
+      <c r="J31">
+        <v>48.302698999999997</v>
+      </c>
+      <c r="K31">
+        <v>54.0341379310345</v>
+      </c>
+      <c r="L31">
+        <v>300.18965517241401</v>
+      </c>
+      <c r="M31">
+        <v>0.17644606896551701</v>
+      </c>
+      <c r="N31">
+        <v>300</v>
+      </c>
+      <c r="O31">
+        <v>23</v>
+      </c>
+      <c r="P31">
+        <v>359</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>42719.687928240739</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="0"/>
+        <v>1.0943080748503</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R1" activeCellId="1" sqref="A1:A1048576 R1:R1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="17" max="17" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>150.00212617241399</v>
+      </c>
+      <c r="B2">
+        <v>136.905596</v>
+      </c>
+      <c r="C2">
+        <v>24.9447490689655</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>1E-3</v>
+      </c>
+      <c r="F2">
+        <v>14.310924137931</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>2.1375862068965501E-4</v>
+      </c>
+      <c r="L2">
+        <v>7.8088620689655197E-3</v>
+      </c>
+      <c r="M2">
+        <v>-1.7436655172413801E-2</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>684</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>42712.661099537036</v>
+      </c>
+      <c r="R2">
+        <f>K2/L2</f>
+        <v>2.7373850223221155E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>150.000050551724</v>
+      </c>
+      <c r="B3">
+        <v>136.926291137931</v>
+      </c>
+      <c r="C3">
+        <v>24.958193896551698</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>1E-3</v>
+      </c>
+      <c r="F3">
+        <v>12.9826154827586</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>2.3331292142857101</v>
+      </c>
+      <c r="L3">
+        <v>0.701453206896552</v>
+      </c>
+      <c r="M3">
+        <v>-1.7436413793103501E-2</v>
+      </c>
+      <c r="N3">
+        <v>0.7</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>360</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>42712.702881944446</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R19" si="0">K3/L3</f>
+        <v>3.3261366422547303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>150.000217724138</v>
+      </c>
+      <c r="B4">
+        <v>136.931530172414</v>
+      </c>
+      <c r="C4">
+        <v>24.9575776551724</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>1E-3</v>
+      </c>
+      <c r="F4">
+        <v>12.9776923103448</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>2.33461462962963</v>
+      </c>
+      <c r="L4">
+        <v>0.70164951851851798</v>
+      </c>
+      <c r="M4">
+        <v>-1.7437068965517201E-2</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>359</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>42712.74454861111</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>3.3273230694421332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>150.00417989655199</v>
+      </c>
+      <c r="B5">
+        <v>136.990122862069</v>
+      </c>
+      <c r="C5">
+        <v>24.962794172413801</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>1E-3</v>
+      </c>
+      <c r="F5">
+        <v>10.003073068965501</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>2.059560024E-259</v>
+      </c>
+      <c r="K5">
+        <v>7.8361012142857103</v>
+      </c>
+      <c r="L5">
+        <v>1.3018142413793099</v>
+      </c>
+      <c r="M5">
+        <v>-1.74362068965517E-2</v>
+      </c>
+      <c r="N5">
+        <v>1.3</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="P5">
+        <v>359</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>42712.786215277774</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>6.0193697112908628</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>150.000556241379</v>
+      </c>
+      <c r="B6">
+        <v>137.00648968965501</v>
+      </c>
+      <c r="C6">
+        <v>24.956364172413799</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>1E-3</v>
+      </c>
+      <c r="F6">
+        <v>9.9760692068965504</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>2.1916868886896599E-306</v>
+      </c>
+      <c r="K6">
+        <v>7.8359567857142904</v>
+      </c>
+      <c r="L6">
+        <v>1.30182124137931</v>
+      </c>
+      <c r="M6">
+        <v>-1.7436448275862101E-2</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <v>359</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>42712.827881944446</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>6.0192264011700338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>200.00698531034499</v>
+      </c>
+      <c r="B7">
+        <v>182.87255324137899</v>
+      </c>
+      <c r="C7">
+        <v>25.028554551724099</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>1E-3</v>
+      </c>
+      <c r="F7">
+        <v>21.098329827586198</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7">
+        <v>1.6579999999999999E-4</v>
+      </c>
+      <c r="L7">
+        <v>7.5188148148148098E-3</v>
+      </c>
+      <c r="M7">
+        <v>-1.7437999999999999E-2</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>6</v>
+      </c>
+      <c r="P7">
+        <v>719</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>42712.911215277774</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>2.2051347730138726E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>200.000653</v>
+      </c>
+      <c r="B8">
+        <v>182.85915399999999</v>
+      </c>
+      <c r="C8">
+        <v>25.002172931034501</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>1E-3</v>
+      </c>
+      <c r="F8">
+        <v>19.810289896551701</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8">
+        <v>2.0868484615384602</v>
+      </c>
+      <c r="L8">
+        <v>0.70161733333333298</v>
+      </c>
+      <c r="M8">
+        <v>-1.7437275862069002E-2</v>
+      </c>
+      <c r="N8">
+        <v>0.7</v>
+      </c>
+      <c r="O8">
+        <v>7</v>
+      </c>
+      <c r="P8">
+        <v>359</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>42712.952881944446</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>2.9743399462838163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>200.00527634482799</v>
+      </c>
+      <c r="B9">
+        <v>182.834167482759</v>
+      </c>
+      <c r="C9">
+        <v>25.031508172413801</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>1E-3</v>
+      </c>
+      <c r="F9">
+        <v>18.581798068965501</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9">
+        <v>4.20696340740741</v>
+      </c>
+      <c r="L9">
+        <v>1.00044946428571</v>
+      </c>
+      <c r="M9">
+        <v>-1.7437000000000001E-2</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>8</v>
+      </c>
+      <c r="P9">
+        <v>359</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>42712.99454861111</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>4.2050733771056112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>200.00101286206899</v>
+      </c>
+      <c r="B10">
+        <v>182.81180696551701</v>
+      </c>
+      <c r="C10">
+        <v>25.0381176551724</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>1E-3</v>
+      </c>
+      <c r="F10">
+        <v>16.956102241379298</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10">
+        <v>7.04635813043478</v>
+      </c>
+      <c r="L10">
+        <v>1.3018630769230799</v>
+      </c>
+      <c r="M10">
+        <v>-1.7437344827586201E-2</v>
+      </c>
+      <c r="N10">
+        <v>1.3</v>
+      </c>
+      <c r="O10">
+        <v>9</v>
+      </c>
+      <c r="P10">
+        <v>359</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>42713.036215277774</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>5.4125186091679218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>199.997794793103</v>
+      </c>
+      <c r="B11">
+        <v>182.858442206897</v>
+      </c>
+      <c r="C11">
+        <v>24.998246655172402</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>1E-3</v>
+      </c>
+      <c r="F11">
+        <v>21.005652586206899</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11">
+        <v>1.7085185185185199E-4</v>
+      </c>
+      <c r="L11">
+        <v>7.6302499999999999E-3</v>
+      </c>
+      <c r="M11">
+        <v>-1.7436965517241401E-2</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>10</v>
+      </c>
+      <c r="P11">
+        <v>359</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>42713.077881944446</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>2.2391383224907701E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>250.00088603448299</v>
+      </c>
+      <c r="B12">
+        <v>228.244014344828</v>
+      </c>
+      <c r="C12">
+        <v>25.041845620689699</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <v>1E-3</v>
+      </c>
+      <c r="F12">
+        <v>28.435241724137899</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12">
+        <v>1.49222222222222E-4</v>
+      </c>
+      <c r="L12">
+        <v>7.7234285714285703E-3</v>
+      </c>
+      <c r="M12">
+        <v>-1.74365517241379E-2</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>11</v>
+      </c>
+      <c r="P12">
+        <v>719</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>42713.161215277774</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>1.9320722764789033E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>249.99796575862101</v>
+      </c>
+      <c r="B13">
+        <v>228.18651337930999</v>
+      </c>
+      <c r="C13">
+        <v>25.075102620689702</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <v>1E-3</v>
+      </c>
+      <c r="F13">
+        <v>27.2699416206897</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13">
+        <v>1.86171285185185</v>
+      </c>
+      <c r="L13">
+        <v>0.70148903703703702</v>
+      </c>
+      <c r="M13">
+        <v>-1.7437586206896501E-2</v>
+      </c>
+      <c r="N13">
+        <v>0.7</v>
+      </c>
+      <c r="O13">
+        <v>12</v>
+      </c>
+      <c r="P13">
+        <v>359</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>42713.202881944446</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="0"/>
+        <v>2.6539443292163036</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>250.00089399999999</v>
+      </c>
+      <c r="B14">
+        <v>228.13893434482799</v>
+      </c>
+      <c r="C14">
+        <v>25.076700586206901</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <v>1E-3</v>
+      </c>
+      <c r="F14">
+        <v>26.104957103448299</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14">
+        <v>3.7640189285714301</v>
+      </c>
+      <c r="L14">
+        <v>1.0006250689655201</v>
+      </c>
+      <c r="M14">
+        <v>-1.7437103448275901E-2</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>13</v>
+      </c>
+      <c r="P14">
+        <v>359</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>42713.24454861111</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="0"/>
+        <v>3.7616676268792664</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>250.000037241379</v>
+      </c>
+      <c r="B15">
+        <v>228.07250493103501</v>
+      </c>
+      <c r="C15">
+        <v>25.0697731724138</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="E15">
+        <v>1E-3</v>
+      </c>
+      <c r="F15">
+        <v>24.540064758620701</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K15">
+        <v>6.32035065517241</v>
+      </c>
+      <c r="L15">
+        <v>1.3019251379310399</v>
+      </c>
+      <c r="M15">
+        <v>-1.7437999999999999E-2</v>
+      </c>
+      <c r="N15">
+        <v>1.3</v>
+      </c>
+      <c r="O15">
+        <v>14</v>
+      </c>
+      <c r="P15">
+        <v>359</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>42713.286215277774</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>4.8546191106014156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>249.99509399999999</v>
+      </c>
+      <c r="B16">
+        <v>228.203173931034</v>
+      </c>
+      <c r="C16">
+        <v>25.066158896551698</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="E16">
+        <v>1E-3</v>
+      </c>
+      <c r="F16">
+        <v>28.366767931034499</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16">
+        <v>1.42703703703704E-4</v>
+      </c>
+      <c r="L16">
+        <v>7.6589655172413802E-3</v>
+      </c>
+      <c r="M16">
+        <v>-1.74391034482759E-2</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>15</v>
+      </c>
+      <c r="P16">
+        <v>359</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>42713.327881944446</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="0"/>
+        <v>1.8632242615854375E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>300.003877758621</v>
+      </c>
+      <c r="B17">
+        <v>273.88243999999997</v>
+      </c>
+      <c r="C17">
+        <v>25.1483641724138</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="E17">
+        <v>1E-3</v>
+      </c>
+      <c r="F17">
+        <v>36.488387931034502</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17">
+        <v>1.2342307692307701E-4</v>
+      </c>
+      <c r="L17">
+        <v>7.711E-3</v>
+      </c>
+      <c r="M17">
+        <v>-1.7440620689655201E-2</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>16</v>
+      </c>
+      <c r="P17">
+        <v>719</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>42713.411215277774</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="0"/>
+        <v>1.6006105164450397E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>300.00021789655199</v>
+      </c>
+      <c r="B18">
+        <v>273.78114486206903</v>
+      </c>
+      <c r="C18">
+        <v>25.1477569655172</v>
+      </c>
+      <c r="D18">
+        <v>100</v>
+      </c>
+      <c r="E18">
+        <v>1E-3</v>
+      </c>
+      <c r="F18">
+        <v>35.099822344827601</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K18">
+        <v>2.1508557037037002</v>
+      </c>
+      <c r="L18">
+        <v>0.80043035714285704</v>
+      </c>
+      <c r="M18">
+        <v>-1.7439724137931E-2</v>
+      </c>
+      <c r="N18">
+        <v>0.8</v>
+      </c>
+      <c r="O18">
+        <v>17</v>
+      </c>
+      <c r="P18">
+        <v>359</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>42713.452881944446</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="0"/>
+        <v>2.687124100816463</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>300.00495124137899</v>
+      </c>
+      <c r="B19">
+        <v>273.70178858620699</v>
+      </c>
+      <c r="C19">
+        <v>25.173731344827601</v>
+      </c>
+      <c r="D19">
+        <v>100</v>
+      </c>
+      <c r="E19">
+        <v>1E-3</v>
+      </c>
+      <c r="F19">
+        <v>33.870915862068998</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K19">
+        <v>4.0532034137931001</v>
+      </c>
+      <c r="L19">
+        <v>1.1015895862069001</v>
+      </c>
+      <c r="M19">
+        <v>-1.7440689655172401E-2</v>
+      </c>
+      <c r="N19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O19">
+        <v>18</v>
+      </c>
+      <c r="P19">
+        <v>359</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>42713.49454861111</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="0"/>
+        <v>3.6794133355503864</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="19" max="19" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>128.601819586207</v>
+      </c>
+      <c r="B2">
+        <v>93.453068620689606</v>
+      </c>
+      <c r="C2">
+        <v>24.981255241379301</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>68.070762655172402</v>
+      </c>
+      <c r="F2">
+        <v>68.482127000000006</v>
+      </c>
+      <c r="G2">
+        <v>1.8397056621621599</v>
+      </c>
+      <c r="H2">
+        <v>6.73830085135135</v>
+      </c>
+      <c r="I2">
+        <v>6.3286940405405403</v>
+      </c>
+      <c r="J2">
+        <v>40.427578103448297</v>
+      </c>
+      <c r="K2">
+        <v>44.091344827586198</v>
+      </c>
+      <c r="L2">
+        <v>300.16206896551699</v>
+      </c>
+      <c r="M2">
+        <v>0.14298037931034499</v>
+      </c>
+      <c r="N2">
+        <v>300</v>
+      </c>
+      <c r="O2">
+        <v>-1</v>
+      </c>
+      <c r="P2">
+        <v>83</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>42727.712071759262</v>
+      </c>
+      <c r="R2">
+        <f>H2-I2</f>
+        <v>0.40960681081080974</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>156.24481158620699</v>
+      </c>
+      <c r="B3">
+        <v>154.660426689655</v>
+      </c>
+      <c r="C3">
+        <v>24.9232563448276</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>62.532569000000002</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3">
+        <v>0.349509183348096</v>
+      </c>
+      <c r="H3">
+        <v>0.93933290256864499</v>
+      </c>
+      <c r="I3">
+        <v>0.86119839858281699</v>
+      </c>
+      <c r="J3">
+        <v>1.05730144827586</v>
+      </c>
+      <c r="K3">
+        <v>3.0019999999999998</v>
+      </c>
+      <c r="L3">
+        <v>300.2</v>
+      </c>
+      <c r="M3">
+        <v>3.7453793103448302E-3</v>
+      </c>
+      <c r="N3">
+        <v>300</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1216</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>42727.85292824074</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R31" si="0">H3-I3</f>
+        <v>7.8134503985827997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>149.92277475862099</v>
+      </c>
+      <c r="B4">
+        <v>137.120041344828</v>
+      </c>
+      <c r="C4">
+        <v>24.889873000000001</v>
+      </c>
+      <c r="D4">
+        <v>300</v>
+      </c>
+      <c r="E4">
+        <v>16.893621655172399</v>
+      </c>
+      <c r="F4">
+        <v>5.3684473103448296</v>
+      </c>
+      <c r="G4">
+        <v>1.6603452083333301</v>
+      </c>
+      <c r="H4">
+        <v>8.3062848214285694</v>
+      </c>
+      <c r="I4">
+        <v>7.9533398928571497</v>
+      </c>
+      <c r="J4">
+        <v>47.723739965517197</v>
+      </c>
+      <c r="K4">
+        <v>18.736620689655201</v>
+      </c>
+      <c r="L4">
+        <v>300.2</v>
+      </c>
+      <c r="M4">
+        <v>0.16613203448275901</v>
+      </c>
+      <c r="N4">
+        <v>300</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>179</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>42727.873761574076</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>0.35294492857141968</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>149.97214265517201</v>
+      </c>
+      <c r="B5">
+        <v>131.58386544827599</v>
+      </c>
+      <c r="C5">
+        <v>24.882212034482801</v>
+      </c>
+      <c r="D5">
+        <v>150</v>
+      </c>
+      <c r="E5">
+        <v>39.143831103448299</v>
+      </c>
+      <c r="F5">
+        <v>9.3190431379310308</v>
+      </c>
+      <c r="G5">
+        <v>2.3109504345238099</v>
+      </c>
+      <c r="H5">
+        <v>8.8095003392857194</v>
+      </c>
+      <c r="I5">
+        <v>8.3373922321428502</v>
+      </c>
+      <c r="J5">
+        <v>48.078065379310402</v>
+      </c>
+      <c r="K5">
+        <v>35.713448275862099</v>
+      </c>
+      <c r="L5">
+        <v>300.2</v>
+      </c>
+      <c r="M5">
+        <v>0.166406413793103</v>
+      </c>
+      <c r="N5">
+        <v>300</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>179</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>42727.894594907404</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>0.47210810714286922</v>
+      </c>
+      <c r="S5" s="2">
+        <f t="shared" ref="S4:S32" si="1">A5</f>
+        <v>149.97214265517201</v>
+      </c>
+      <c r="T5">
+        <f t="shared" ref="T4:T32" si="2">R5</f>
+        <v>0.47210810714286922</v>
+      </c>
+      <c r="U5">
+        <f>T5^2</f>
+        <v>0.22288606483002288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>149.997593413793</v>
+      </c>
+      <c r="B6">
+        <v>129.89335634482799</v>
+      </c>
+      <c r="C6">
+        <v>24.875665517241401</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>68.831966758620695</v>
+      </c>
+      <c r="F6">
+        <v>10.8930873103448</v>
+      </c>
+      <c r="G6">
+        <v>2.8145787634730599</v>
+      </c>
+      <c r="H6">
+        <v>8.6709137395209606</v>
+      </c>
+      <c r="I6">
+        <v>8.0778174071856395</v>
+      </c>
+      <c r="J6">
+        <v>47.831814103448302</v>
+      </c>
+      <c r="K6">
+        <v>54.022965517241403</v>
+      </c>
+      <c r="L6">
+        <v>300.12758620689698</v>
+      </c>
+      <c r="M6">
+        <v>0.16393944827586199</v>
+      </c>
+      <c r="N6">
+        <v>300</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>359</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>42727.936261574076</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>0.59309633233532111</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="2"/>
+        <v>0.59309633233532111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>149.99957589655199</v>
+      </c>
+      <c r="B7">
+        <v>129.802524482759</v>
+      </c>
+      <c r="C7">
+        <v>24.869802</v>
+      </c>
+      <c r="D7">
+        <v>150</v>
+      </c>
+      <c r="E7">
+        <v>42.800278310344801</v>
+      </c>
+      <c r="F7">
+        <v>11.141224206896499</v>
+      </c>
+      <c r="G7">
+        <v>2.43286808928571</v>
+      </c>
+      <c r="H7">
+        <v>8.9686097678571493</v>
+      </c>
+      <c r="I7">
+        <v>8.4824662797619101</v>
+      </c>
+      <c r="J7">
+        <v>47.712314448275897</v>
+      </c>
+      <c r="K7">
+        <v>57.022931034482802</v>
+      </c>
+      <c r="L7">
+        <v>300.12068965517301</v>
+      </c>
+      <c r="M7">
+        <v>0.162653827586207</v>
+      </c>
+      <c r="N7">
+        <v>300</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>179</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>42727.957094907404</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>0.48614348809523911</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>149.999969517241</v>
+      </c>
+      <c r="B8">
+        <v>129.76824634482799</v>
+      </c>
+      <c r="C8">
+        <v>24.862024241379299</v>
+      </c>
+      <c r="D8">
+        <v>300</v>
+      </c>
+      <c r="E8">
+        <v>19.6807170689655</v>
+      </c>
+      <c r="F8">
+        <v>11.487960655172399</v>
+      </c>
+      <c r="G8">
+        <v>1.88690046491228</v>
+      </c>
+      <c r="H8">
+        <v>9.0499083070175494</v>
+      </c>
+      <c r="I8">
+        <v>8.6772236403508707</v>
+      </c>
+      <c r="J8">
+        <v>47.5963133448276</v>
+      </c>
+      <c r="K8">
+        <v>57.022275862069002</v>
+      </c>
+      <c r="L8">
+        <v>300.11724137930997</v>
+      </c>
+      <c r="M8">
+        <v>0.16131375862069</v>
+      </c>
+      <c r="N8">
+        <v>300</v>
+      </c>
+      <c r="O8">
+        <v>6</v>
+      </c>
+      <c r="P8">
+        <v>179</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>42727.97792824074</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>0.37268466666667877</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>149.99689151724101</v>
+      </c>
+      <c r="B9">
+        <v>129.44320099999999</v>
+      </c>
+      <c r="C9">
+        <v>24.846690655172399</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>13.0146415517241</v>
+      </c>
+      <c r="G9">
+        <f>G6</f>
+        <v>2.8145787634730599</v>
+      </c>
+      <c r="H9">
+        <f>H6</f>
+        <v>8.6709137395209606</v>
+      </c>
+      <c r="I9">
+        <f>I6</f>
+        <v>8.0778174071856395</v>
+      </c>
+      <c r="J9">
+        <v>1.0154578275862101</v>
+      </c>
+      <c r="K9">
+        <v>3.0019999999999998</v>
+      </c>
+      <c r="L9">
+        <v>300.2</v>
+      </c>
+      <c r="M9">
+        <v>3.75944827586207E-3</v>
+      </c>
+      <c r="N9">
+        <v>300</v>
+      </c>
+      <c r="O9">
+        <v>7</v>
+      </c>
+      <c r="P9">
+        <v>179</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>42727.998761574076</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>0.59309633233532111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>200.000468275862</v>
+      </c>
+      <c r="B10">
+        <v>173.71594613793101</v>
+      </c>
+      <c r="C10">
+        <v>24.880791793103398</v>
+      </c>
+      <c r="D10">
+        <v>300</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>19.588675379310299</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1.0189764482758601</v>
+      </c>
+      <c r="K10">
+        <v>3.0019999999999998</v>
+      </c>
+      <c r="L10">
+        <v>300.2</v>
+      </c>
+      <c r="M10">
+        <v>3.7718965517241402E-3</v>
+      </c>
+      <c r="N10">
+        <v>300</v>
+      </c>
+      <c r="O10">
+        <v>8</v>
+      </c>
+      <c r="P10">
+        <v>719</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>42728.082094907404</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>200.003202344828</v>
+      </c>
+      <c r="B11">
+        <v>174.05008355172399</v>
+      </c>
+      <c r="C11">
+        <v>24.8837053448276</v>
+      </c>
+      <c r="D11">
+        <v>300</v>
+      </c>
+      <c r="E11">
+        <v>20.009906000000001</v>
+      </c>
+      <c r="F11">
+        <v>17.705566896551701</v>
+      </c>
+      <c r="G11">
+        <v>2.3126133511904801</v>
+      </c>
+      <c r="H11">
+        <v>9.1146063333333291</v>
+      </c>
+      <c r="I11">
+        <v>8.6615310714285698</v>
+      </c>
+      <c r="J11">
+        <v>48.447822275862102</v>
+      </c>
+      <c r="K11">
+        <v>57.0203103448276</v>
+      </c>
+      <c r="L11">
+        <v>300.10689655172399</v>
+      </c>
+      <c r="M11">
+        <v>0.175016689655172</v>
+      </c>
+      <c r="N11">
+        <v>300</v>
+      </c>
+      <c r="O11">
+        <v>9</v>
+      </c>
+      <c r="P11">
+        <v>179</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>42728.10292824074</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>0.45307526190475933</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>200.001049103448</v>
+      </c>
+      <c r="B12">
+        <v>174.09493962069001</v>
+      </c>
+      <c r="C12">
+        <v>24.8821252068966</v>
+      </c>
+      <c r="D12">
+        <v>150</v>
+      </c>
+      <c r="E12">
+        <v>43.331567896551697</v>
+      </c>
+      <c r="F12">
+        <v>17.149095137930999</v>
+      </c>
+      <c r="G12">
+        <v>2.9630397857142898</v>
+      </c>
+      <c r="H12">
+        <v>9.04384305357142</v>
+      </c>
+      <c r="I12">
+        <v>8.4483957023809495</v>
+      </c>
+      <c r="J12">
+        <v>48.3285176896552</v>
+      </c>
+      <c r="K12">
+        <v>57.0209655172414</v>
+      </c>
+      <c r="L12">
+        <v>300.110344827586</v>
+      </c>
+      <c r="M12">
+        <v>0.174277448275862</v>
+      </c>
+      <c r="N12">
+        <v>300</v>
+      </c>
+      <c r="O12">
+        <v>10</v>
+      </c>
+      <c r="P12">
+        <v>179</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>42728.123761574076</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>0.59544735119047054</v>
+      </c>
+      <c r="S12" s="2">
+        <f t="shared" si="1"/>
+        <v>200.001049103448</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="2"/>
+        <v>0.59544735119047054</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>200.000395724138</v>
+      </c>
+      <c r="B13">
+        <v>174.084209551724</v>
+      </c>
+      <c r="C13">
+        <v>24.878225103448301</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <v>69.142410517241402</v>
+      </c>
+      <c r="F13">
+        <v>16.9274662413793</v>
+      </c>
+      <c r="G13">
+        <v>3.40775359580838</v>
+      </c>
+      <c r="H13">
+        <v>8.8631447335329305</v>
+      </c>
+      <c r="I13">
+        <v>8.1545702365269506</v>
+      </c>
+      <c r="J13">
+        <v>48.090764862069001</v>
+      </c>
+      <c r="K13">
+        <v>54.332172413793103</v>
+      </c>
+      <c r="L13">
+        <v>300.11724137930997</v>
+      </c>
+      <c r="M13">
+        <v>0.17272068965517201</v>
+      </c>
+      <c r="N13">
+        <v>300</v>
+      </c>
+      <c r="O13">
+        <v>11</v>
+      </c>
+      <c r="P13">
+        <v>359</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>42728.16542824074</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="0"/>
+        <v>0.70857449700597996</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="2"/>
+        <v>0.70857449700597996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>200.001257586207</v>
+      </c>
+      <c r="B14">
+        <v>174.089732724138</v>
+      </c>
+      <c r="C14">
+        <v>24.883326034482799</v>
+      </c>
+      <c r="D14">
+        <v>150</v>
+      </c>
+      <c r="E14">
+        <v>43.186206793103402</v>
+      </c>
+      <c r="F14">
+        <v>17.103049137930999</v>
+      </c>
+      <c r="G14">
+        <v>2.9345270714285698</v>
+      </c>
+      <c r="H14">
+        <v>9.0120990833333305</v>
+      </c>
+      <c r="I14">
+        <v>8.4217052976190399</v>
+      </c>
+      <c r="J14">
+        <v>48.106352103448302</v>
+      </c>
+      <c r="K14">
+        <v>57.0203103448276</v>
+      </c>
+      <c r="L14">
+        <v>300.10689655172399</v>
+      </c>
+      <c r="M14">
+        <v>0.17253975862068999</v>
+      </c>
+      <c r="N14">
+        <v>300</v>
+      </c>
+      <c r="O14">
+        <v>12</v>
+      </c>
+      <c r="P14">
+        <v>179</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>42728.186261574076</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="0"/>
+        <v>0.59039378571429069</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>200.00030506896599</v>
+      </c>
+      <c r="B15">
+        <v>174.092661344828</v>
+      </c>
+      <c r="C15">
+        <v>24.876412758620699</v>
+      </c>
+      <c r="D15">
+        <v>300</v>
+      </c>
+      <c r="E15">
+        <v>20.019458586206898</v>
+      </c>
+      <c r="F15">
+        <v>17.518890655172399</v>
+      </c>
+      <c r="G15">
+        <v>2.3231392678571399</v>
+      </c>
+      <c r="H15">
+        <v>9.1141298809523796</v>
+      </c>
+      <c r="I15">
+        <v>8.6598435059523808</v>
+      </c>
+      <c r="J15">
+        <v>48.358763172413802</v>
+      </c>
+      <c r="K15">
+        <v>57.0209655172414</v>
+      </c>
+      <c r="L15">
+        <v>300.110344827586</v>
+      </c>
+      <c r="M15">
+        <v>0.172770862068966</v>
+      </c>
+      <c r="N15">
+        <v>300</v>
+      </c>
+      <c r="O15">
+        <v>13</v>
+      </c>
+      <c r="P15">
+        <v>179</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>42728.207094907404</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>0.4542863749999988</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>199.996026413793</v>
+      </c>
+      <c r="B16">
+        <v>173.75998662069</v>
+      </c>
+      <c r="C16">
+        <v>24.8687382758621</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>19.380484655172399</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1.06310872413793</v>
+      </c>
+      <c r="K16">
+        <v>3.0019999999999998</v>
+      </c>
+      <c r="L16">
+        <v>300.2</v>
+      </c>
+      <c r="M16">
+        <v>3.78565517241379E-3</v>
+      </c>
+      <c r="N16">
+        <v>300</v>
+      </c>
+      <c r="O16">
+        <v>14</v>
+      </c>
+      <c r="P16">
+        <v>179</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>42728.22792824074</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>249.999743344828</v>
+      </c>
+      <c r="B17">
+        <v>217.82038082758601</v>
+      </c>
+      <c r="C17">
+        <v>24.8897336551724</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>26.5388013793103</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1.0662183103448299</v>
+      </c>
+      <c r="K17">
+        <v>3.0019999999999998</v>
+      </c>
+      <c r="L17">
+        <v>300.2</v>
+      </c>
+      <c r="M17">
+        <v>3.7957586206896501E-3</v>
+      </c>
+      <c r="N17">
+        <v>300</v>
+      </c>
+      <c r="O17">
+        <v>15</v>
+      </c>
+      <c r="P17">
+        <v>719</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>42728.311261574076</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>250.003255931035</v>
+      </c>
+      <c r="B18">
+        <v>218.153841310345</v>
+      </c>
+      <c r="C18">
+        <v>24.899417275862099</v>
+      </c>
+      <c r="D18">
+        <v>300</v>
+      </c>
+      <c r="E18">
+        <v>19.9196135862069</v>
+      </c>
+      <c r="F18">
+        <v>24.301320241379301</v>
+      </c>
+      <c r="G18">
+        <v>2.7830539253731299</v>
+      </c>
+      <c r="H18">
+        <v>9.1619538134328309</v>
+      </c>
+      <c r="I18">
+        <v>8.6136940597014995</v>
+      </c>
+      <c r="J18">
+        <v>48.363241896551699</v>
+      </c>
+      <c r="K18">
+        <v>57.021620689655201</v>
+      </c>
+      <c r="L18">
+        <v>300.11379310344802</v>
+      </c>
+      <c r="M18">
+        <v>0.17688000000000001</v>
+      </c>
+      <c r="N18">
+        <v>300</v>
+      </c>
+      <c r="O18">
+        <v>16</v>
+      </c>
+      <c r="P18">
+        <v>179</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>42728.332094907404</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="0"/>
+        <v>0.5482597537313314</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>249.99901341379299</v>
+      </c>
+      <c r="B19">
+        <v>218.088971344828</v>
+      </c>
+      <c r="C19">
+        <v>24.897364793103399</v>
+      </c>
+      <c r="D19">
+        <v>150</v>
+      </c>
+      <c r="E19">
+        <v>43.209147999999999</v>
+      </c>
+      <c r="F19">
+        <v>23.610364000000001</v>
+      </c>
+      <c r="G19">
+        <f>G21</f>
+        <v>3.5845859642857101</v>
+      </c>
+      <c r="H19">
+        <f>H21</f>
+        <v>9.1202826547618994</v>
+      </c>
+      <c r="I19">
+        <f>I21</f>
+        <v>8.3971360714285694</v>
+      </c>
+      <c r="J19">
+        <v>48.239093103448297</v>
+      </c>
+      <c r="K19">
+        <v>57.018999999999998</v>
+      </c>
+      <c r="L19">
+        <v>300.10000000000002</v>
+      </c>
+      <c r="M19">
+        <v>0.17632603448275899</v>
+      </c>
+      <c r="N19">
+        <v>300</v>
+      </c>
+      <c r="O19">
+        <v>17</v>
+      </c>
+      <c r="P19">
+        <v>179</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>42728.35292824074</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="0"/>
+        <v>0.72314658333332993</v>
+      </c>
+      <c r="S19" s="2">
+        <f t="shared" si="1"/>
+        <v>249.99901341379299</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="2"/>
+        <v>0.72314658333332993</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>249.99879410344801</v>
+      </c>
+      <c r="B20">
+        <v>218.030279275862</v>
+      </c>
+      <c r="C20">
+        <v>24.8862673793104</v>
+      </c>
+      <c r="D20">
+        <v>100</v>
+      </c>
+      <c r="E20">
+        <v>69.609967758620698</v>
+      </c>
+      <c r="F20">
+        <v>23.2861012068965</v>
+      </c>
+      <c r="G20">
+        <v>4.0643484718309804</v>
+      </c>
+      <c r="H20">
+        <v>8.9364118485915505</v>
+      </c>
+      <c r="I20">
+        <v>8.0842874049295794</v>
+      </c>
+      <c r="J20">
+        <v>48.479960172413797</v>
+      </c>
+      <c r="K20">
+        <v>56.191793103448298</v>
+      </c>
+      <c r="L20">
+        <v>300.10344827586198</v>
+      </c>
+      <c r="M20">
+        <v>0.17687672413793101</v>
+      </c>
+      <c r="N20">
+        <v>300</v>
+      </c>
+      <c r="O20">
+        <v>18</v>
+      </c>
+      <c r="P20">
+        <v>359</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>42728.394594907404</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="0"/>
+        <v>0.85212444366197104</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="2"/>
+        <v>0.85212444366197104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>249.99924134482799</v>
+      </c>
+      <c r="B21">
+        <v>218.067413241379</v>
+      </c>
+      <c r="C21">
+        <v>24.8898718965517</v>
+      </c>
+      <c r="D21">
+        <v>150</v>
+      </c>
+      <c r="E21">
+        <v>43.414974758620701</v>
+      </c>
+      <c r="F21">
+        <v>23.568129896551699</v>
+      </c>
+      <c r="G21">
+        <v>3.5845859642857101</v>
+      </c>
+      <c r="H21">
+        <v>9.1202826547618994</v>
+      </c>
+      <c r="I21">
+        <v>8.3971360714285694</v>
+      </c>
+      <c r="J21">
+        <v>48.382244965517302</v>
+      </c>
+      <c r="K21">
+        <v>57.019655172413799</v>
+      </c>
+      <c r="L21">
+        <v>300.10344827586198</v>
+      </c>
+      <c r="M21">
+        <v>0.17638499999999999</v>
+      </c>
+      <c r="N21">
+        <v>300</v>
+      </c>
+      <c r="O21">
+        <v>19</v>
+      </c>
+      <c r="P21">
+        <v>179</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>42728.41542824074</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="0"/>
+        <v>0.72314658333332993</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>249.998725655172</v>
+      </c>
+      <c r="B22">
+        <v>218.14366406896599</v>
+      </c>
+      <c r="C22">
+        <v>24.892056620689701</v>
+      </c>
+      <c r="D22">
+        <v>300</v>
+      </c>
+      <c r="E22">
+        <v>19.9736506206897</v>
+      </c>
+      <c r="F22">
+        <v>24.1537745862069</v>
+      </c>
+      <c r="G22">
+        <v>2.7802132738095202</v>
+      </c>
+      <c r="H22">
+        <v>9.1541411666666601</v>
+      </c>
+      <c r="I22">
+        <v>8.6070241666666707</v>
+      </c>
+      <c r="J22">
+        <v>48.253803482758599</v>
+      </c>
+      <c r="K22">
+        <v>57.018999999999998</v>
+      </c>
+      <c r="L22">
+        <v>300.10000000000002</v>
+      </c>
+      <c r="M22">
+        <v>0.17575124137931</v>
+      </c>
+      <c r="N22">
+        <v>300</v>
+      </c>
+      <c r="O22">
+        <v>20</v>
+      </c>
+      <c r="P22">
+        <v>179</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>42728.436261574076</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="0"/>
+        <v>0.54711699999998942</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>249.996920344828</v>
+      </c>
+      <c r="B23">
+        <v>217.82610189655199</v>
+      </c>
+      <c r="C23">
+        <v>24.8941875862069</v>
+      </c>
+      <c r="D23">
+        <v>100</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>26.352433344827599</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0.81907258620689605</v>
+      </c>
+      <c r="K23">
+        <v>3.0019999999999998</v>
+      </c>
+      <c r="L23">
+        <v>300.2</v>
+      </c>
+      <c r="M23">
+        <v>3.7996206896551699E-3</v>
+      </c>
+      <c r="N23">
+        <v>300</v>
+      </c>
+      <c r="O23">
+        <v>21</v>
+      </c>
+      <c r="P23">
+        <v>179</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>42728.457094907404</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>300.00012624137901</v>
+      </c>
+      <c r="B24">
+        <v>262.97859137930999</v>
+      </c>
+      <c r="C24">
+        <v>24.983481379310302</v>
+      </c>
+      <c r="D24">
+        <v>100</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>34.264589517241397</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0.81763724137931004</v>
+      </c>
+      <c r="K24">
+        <v>3.0019999999999998</v>
+      </c>
+      <c r="L24">
+        <v>300.2</v>
+      </c>
+      <c r="M24">
+        <v>3.7935862068965501E-3</v>
+      </c>
+      <c r="N24">
+        <v>300</v>
+      </c>
+      <c r="O24">
+        <v>22</v>
+      </c>
+      <c r="P24">
+        <v>719</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>42728.54042824074</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>300.005333172414</v>
+      </c>
+      <c r="B25">
+        <v>263.36818724137902</v>
+      </c>
+      <c r="C25">
+        <v>24.9911622413793</v>
+      </c>
+      <c r="D25">
+        <v>300</v>
+      </c>
+      <c r="E25">
+        <v>20.209211724137901</v>
+      </c>
+      <c r="F25">
+        <v>31.731752620689701</v>
+      </c>
+      <c r="G25">
+        <v>3.1600973392857199</v>
+      </c>
+      <c r="H25">
+        <v>9.1862246488095192</v>
+      </c>
+      <c r="I25">
+        <v>8.5601826666666696</v>
+      </c>
+      <c r="J25">
+        <v>47.556033241379303</v>
+      </c>
+      <c r="K25">
+        <v>57.0203103448276</v>
+      </c>
+      <c r="L25">
+        <v>300.10689655172399</v>
+      </c>
+      <c r="M25">
+        <v>0.15113479310344799</v>
+      </c>
+      <c r="N25">
+        <v>300</v>
+      </c>
+      <c r="O25">
+        <v>23</v>
+      </c>
+      <c r="P25">
+        <v>179</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>42728.561261574076</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="0"/>
+        <v>0.62604198214284956</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>300.00092917241398</v>
+      </c>
+      <c r="B26">
+        <v>263.20363420689603</v>
+      </c>
+      <c r="C26">
+        <v>24.997308620689701</v>
+      </c>
+      <c r="D26">
+        <v>150</v>
+      </c>
+      <c r="E26">
+        <v>43.484267931034502</v>
+      </c>
+      <c r="F26">
+        <v>30.961679137931</v>
+      </c>
+      <c r="G26">
+        <v>4.02858317261905</v>
+      </c>
+      <c r="H26">
+        <v>9.1328905773809606</v>
+      </c>
+      <c r="I26">
+        <v>8.3082060416666703</v>
+      </c>
+      <c r="J26">
+        <v>47.6143586206897</v>
+      </c>
+      <c r="K26">
+        <v>57.019655172413799</v>
+      </c>
+      <c r="L26">
+        <v>300.10344827586198</v>
+      </c>
+      <c r="M26">
+        <v>0.15565937931034499</v>
+      </c>
+      <c r="N26">
+        <v>300</v>
+      </c>
+      <c r="O26">
+        <v>24</v>
+      </c>
+      <c r="P26">
+        <v>179</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>42728.582094907404</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="0"/>
+        <v>0.82468453571429023</v>
+      </c>
+      <c r="S26" s="2">
+        <f t="shared" si="1"/>
+        <v>300.00092917241398</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="2"/>
+        <v>0.82468453571429023</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>300.00080710344798</v>
+      </c>
+      <c r="B27">
+        <v>263.082726896552</v>
+      </c>
+      <c r="C27">
+        <v>25.012289448275901</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="E27">
+        <v>70.0723574137931</v>
+      </c>
+      <c r="F27">
+        <v>30.551680793103401</v>
+      </c>
+      <c r="G27">
+        <v>4.6687788083832196</v>
+      </c>
+      <c r="H27">
+        <v>9.0077007574850203</v>
+      </c>
+      <c r="I27">
+        <v>8.0200591227544997</v>
+      </c>
+      <c r="J27">
+        <v>48.509787862068997</v>
+      </c>
+      <c r="K27">
+        <v>54.024206896551803</v>
+      </c>
+      <c r="L27">
+        <v>300.134482758621</v>
+      </c>
+      <c r="M27">
+        <v>0.17771824137931</v>
+      </c>
+      <c r="N27">
+        <v>300</v>
+      </c>
+      <c r="O27">
+        <v>25</v>
+      </c>
+      <c r="P27">
+        <v>359</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>42728.623761574076</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="0"/>
+        <v>0.98764163473052058</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="2"/>
+        <v>0.98764163473052058</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>299.99995582758601</v>
+      </c>
+      <c r="B28">
+        <v>263.18269396551699</v>
+      </c>
+      <c r="C28">
+        <v>25.014175482758599</v>
+      </c>
+      <c r="D28">
+        <v>150</v>
+      </c>
+      <c r="E28">
+        <v>43.612861586206897</v>
+      </c>
+      <c r="F28">
+        <v>30.935600655172401</v>
+      </c>
+      <c r="G28">
+        <v>4.0630803571428604</v>
+      </c>
+      <c r="H28">
+        <v>9.1516127559523799</v>
+      </c>
+      <c r="I28">
+        <v>8.3248232916666591</v>
+      </c>
+      <c r="J28">
+        <v>48.409630103448301</v>
+      </c>
+      <c r="K28">
+        <v>57.0203103448276</v>
+      </c>
+      <c r="L28">
+        <v>300.10689655172399</v>
+      </c>
+      <c r="M28">
+        <v>0.177843103448276</v>
+      </c>
+      <c r="N28">
+        <v>300</v>
+      </c>
+      <c r="O28">
+        <v>26</v>
+      </c>
+      <c r="P28">
+        <v>179</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>42728.644594907404</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="0"/>
+        <v>0.82678946428572075</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>300.00175737930999</v>
+      </c>
+      <c r="B29">
+        <v>263.32814079310299</v>
+      </c>
+      <c r="C29">
+        <v>25.020540344827602</v>
+      </c>
+      <c r="D29">
+        <v>300</v>
+      </c>
+      <c r="E29">
+        <v>20.046906068965502</v>
+      </c>
+      <c r="F29">
+        <v>31.593108379310301</v>
+      </c>
+      <c r="G29">
+        <v>3.1691482797619002</v>
+      </c>
+      <c r="H29">
+        <v>9.1784315416666704</v>
+      </c>
+      <c r="I29">
+        <v>8.5507557261904807</v>
+      </c>
+      <c r="J29">
+        <v>48.292548620689701</v>
+      </c>
+      <c r="K29">
+        <v>57.022931034482802</v>
+      </c>
+      <c r="L29">
+        <v>300.12068965517301</v>
+      </c>
+      <c r="M29">
+        <v>0.17741093103448299</v>
+      </c>
+      <c r="N29">
+        <v>300</v>
+      </c>
+      <c r="O29">
+        <v>27</v>
+      </c>
+      <c r="P29">
+        <v>179</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>42728.66542824074</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="0"/>
+        <v>0.62767581547618967</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>299.99505096551701</v>
+      </c>
+      <c r="B30">
+        <v>262.948203275862</v>
+      </c>
+      <c r="C30">
+        <v>25.017179103448299</v>
+      </c>
+      <c r="D30">
+        <v>100</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>34.114025172413797</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1.0232852758620701</v>
+      </c>
+      <c r="K30">
+        <v>3.0019999999999998</v>
+      </c>
+      <c r="L30">
+        <v>300.2</v>
+      </c>
+      <c r="M30">
+        <v>3.7815862068965502E-3</v>
+      </c>
+      <c r="N30">
+        <v>300</v>
+      </c>
+      <c r="O30">
+        <v>28</v>
+      </c>
+      <c r="P30">
+        <v>179</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>42728.686261574076</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>350.001217517241</v>
+      </c>
+      <c r="B31">
+        <v>309.664103551724</v>
+      </c>
+      <c r="C31">
+        <v>25.060550586206901</v>
+      </c>
+      <c r="D31">
+        <v>100</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>42.976234206896599</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1.02458427586207</v>
+      </c>
+      <c r="K31">
+        <v>3.0019999999999998</v>
+      </c>
+      <c r="L31">
+        <v>300.2</v>
+      </c>
+      <c r="M31">
+        <v>3.7866551724137902E-3</v>
+      </c>
+      <c r="N31">
+        <v>300</v>
+      </c>
+      <c r="O31">
+        <v>29</v>
+      </c>
+      <c r="P31">
+        <v>719</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>42728.769594907404</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>349.99964006896602</v>
+      </c>
+      <c r="B32">
+        <v>310.53554872413798</v>
+      </c>
+      <c r="C32">
+        <v>25.063902068965501</v>
+      </c>
+      <c r="D32">
+        <v>300</v>
+      </c>
+      <c r="E32">
+        <v>19.928372206896601</v>
+      </c>
+      <c r="F32">
+        <v>40.771555862069</v>
+      </c>
+      <c r="G32">
+        <v>2.9629509166666699</v>
+      </c>
+      <c r="H32">
+        <v>9.1426888690476193</v>
+      </c>
+      <c r="I32">
+        <v>8.5550095238095203</v>
+      </c>
+      <c r="J32">
+        <v>47.634766068965497</v>
+      </c>
+      <c r="K32">
+        <v>57.0203103448276</v>
+      </c>
+      <c r="L32">
+        <v>300.10689655172399</v>
+      </c>
+      <c r="M32">
+        <v>0.16555644827586199</v>
+      </c>
+      <c r="N32">
+        <v>300</v>
+      </c>
+      <c r="O32">
+        <v>30</v>
+      </c>
+      <c r="P32">
+        <v>179</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>42728.79042824074</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/report/ipb3-32b.xlsx
+++ b/report/ipb3-32b.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9465" yWindow="-15" windowWidth="14430" windowHeight="12540" activeTab="7"/>
+    <workbookView xWindow="8775" yWindow="600" windowWidth="13800" windowHeight="11520" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="He-H2-D2" sheetId="10" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="0.5d2" sheetId="12" r:id="rId5"/>
     <sheet name="d2" sheetId="13" r:id="rId6"/>
     <sheet name="ipb3-32b-he-121416-12172016" sheetId="14" r:id="rId7"/>
-    <sheet name="ipb3-32b-he-12092016" sheetId="15" r:id="rId8"/>
+    <sheet name="DC-he-12092016" sheetId="15" r:id="rId8"/>
     <sheet name="ipb3-32b-h2-121916-12242016" sheetId="16" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="84">
   <si>
     <t>Temp</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>v1-v2</t>
+  </si>
+  <si>
+    <t>current</t>
   </si>
 </sst>
 </file>
@@ -1160,11 +1163,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="140247040"/>
-        <c:axId val="140247616"/>
+        <c:axId val="233044736"/>
+        <c:axId val="233045312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="140247040"/>
+        <c:axId val="233044736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -1200,12 +1203,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140247616"/>
+        <c:crossAx val="233045312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="140247616"/>
+        <c:axId val="233045312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -1244,7 +1247,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140247040"/>
+        <c:crossAx val="233044736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1467,11 +1470,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="141650752"/>
-        <c:axId val="141651328"/>
+        <c:axId val="175130304"/>
+        <c:axId val="175130880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="141650752"/>
+        <c:axId val="175130304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="150"/>
@@ -1482,12 +1485,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141651328"/>
+        <c:crossAx val="175130880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="141651328"/>
+        <c:axId val="175130880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="45"/>
@@ -1500,7 +1503,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141650752"/>
+        <c:crossAx val="175130304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1820,11 +1823,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="141651904"/>
-        <c:axId val="141652480"/>
+        <c:axId val="175131456"/>
+        <c:axId val="175132032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="141651904"/>
+        <c:axId val="175131456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -1859,12 +1862,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141652480"/>
+        <c:crossAx val="175132032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="141652480"/>
+        <c:axId val="175132032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -1903,7 +1906,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141651904"/>
+        <c:crossAx val="175131456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2230,11 +2233,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="141654784"/>
-        <c:axId val="141655360"/>
+        <c:axId val="175134336"/>
+        <c:axId val="175134912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="141654784"/>
+        <c:axId val="175134336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -2269,12 +2272,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141655360"/>
+        <c:crossAx val="175134912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="141655360"/>
+        <c:axId val="175134912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -2313,7 +2316,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141654784"/>
+        <c:crossAx val="175134336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2435,11 +2438,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142255808"/>
-        <c:axId val="142256384"/>
+        <c:axId val="173670976"/>
+        <c:axId val="173671552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142255808"/>
+        <c:axId val="173670976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2468,12 +2471,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142256384"/>
+        <c:crossAx val="173671552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142256384"/>
+        <c:axId val="173671552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2510,7 +2513,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142255808"/>
+        <c:crossAx val="173670976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2559,7 +2562,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -2615,11 +2617,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142258112"/>
-        <c:axId val="142258688"/>
+        <c:axId val="173673280"/>
+        <c:axId val="173673856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142258112"/>
+        <c:axId val="173673280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2629,12 +2631,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142258688"/>
+        <c:crossAx val="173673856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142258688"/>
+        <c:axId val="173673856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2645,14 +2647,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142258112"/>
+        <c:crossAx val="173673280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2940,11 +2941,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142260992"/>
-        <c:axId val="142261568"/>
+        <c:axId val="173676160"/>
+        <c:axId val="173676736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142260992"/>
+        <c:axId val="173676160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150"/>
@@ -2968,18 +2969,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142261568"/>
+        <c:crossAx val="173676736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142261568"/>
+        <c:axId val="173676736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -3018,13 +3020,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142260992"/>
+        <c:crossAx val="173676160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3263,11 +3266,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="140576448"/>
-        <c:axId val="140577024"/>
+        <c:axId val="173728320"/>
+        <c:axId val="173728896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="140576448"/>
+        <c:axId val="173728320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150"/>
@@ -3291,18 +3294,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140577024"/>
+        <c:crossAx val="173728896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="140577024"/>
+        <c:axId val="173728896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -3341,13 +3345,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140576448"/>
+        <c:crossAx val="173728320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3539,11 +3544,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="140579328"/>
-        <c:axId val="140579904"/>
+        <c:axId val="173731200"/>
+        <c:axId val="173731776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="140579328"/>
+        <c:axId val="173731200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3553,12 +3558,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140579904"/>
+        <c:crossAx val="173731776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="140579904"/>
+        <c:axId val="173731776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3569,13 +3574,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140579328"/>
+        <c:crossAx val="173731200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3893,11 +3899,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="140582208"/>
-        <c:axId val="142606336"/>
+        <c:axId val="173734080"/>
+        <c:axId val="173734656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="140582208"/>
+        <c:axId val="173734080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -3925,19 +3931,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142606336"/>
+        <c:crossAx val="173734656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142606336"/>
+        <c:axId val="173734656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3974,14 +3979,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140582208"/>
+        <c:crossAx val="173734080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4299,11 +4303,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142608640"/>
-        <c:axId val="142609216"/>
+        <c:axId val="233006208"/>
+        <c:axId val="233006784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142608640"/>
+        <c:axId val="233006208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -4331,19 +4335,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142609216"/>
+        <c:crossAx val="233006784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142609216"/>
+        <c:axId val="233006784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -4382,14 +4385,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142608640"/>
+        <c:crossAx val="233006208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4708,11 +4710,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="140249920"/>
-        <c:axId val="140250496"/>
+        <c:axId val="200148672"/>
+        <c:axId val="200149248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="140249920"/>
+        <c:axId val="200148672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -4747,12 +4749,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140250496"/>
+        <c:crossAx val="200149248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="140250496"/>
+        <c:axId val="200149248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -4791,7 +4793,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140249920"/>
+        <c:crossAx val="200148672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5044,11 +5046,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142611520"/>
-        <c:axId val="142612096"/>
+        <c:axId val="233009088"/>
+        <c:axId val="233009664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142611520"/>
+        <c:axId val="233009088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5058,12 +5060,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142612096"/>
+        <c:crossAx val="233009664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142612096"/>
+        <c:axId val="233009664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5074,14 +5076,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142611520"/>
+        <c:crossAx val="233009088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5401,11 +5402,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142663680"/>
-        <c:axId val="142664256"/>
+        <c:axId val="233011968"/>
+        <c:axId val="233012544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142663680"/>
+        <c:axId val="233011968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -5439,12 +5440,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142664256"/>
+        <c:crossAx val="233012544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142664256"/>
+        <c:axId val="233012544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5481,7 +5482,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142663680"/>
+        <c:crossAx val="233011968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5805,11 +5806,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142666560"/>
-        <c:axId val="142667136"/>
+        <c:axId val="175818432"/>
+        <c:axId val="175819008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142666560"/>
+        <c:axId val="175818432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -5843,12 +5844,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142667136"/>
+        <c:crossAx val="175819008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142667136"/>
+        <c:axId val="175819008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -5887,7 +5888,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142666560"/>
+        <c:crossAx val="175818432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6154,11 +6155,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142669440"/>
-        <c:axId val="142670016"/>
+        <c:axId val="175821312"/>
+        <c:axId val="175821888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142669440"/>
+        <c:axId val="175821312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6168,12 +6169,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142670016"/>
+        <c:crossAx val="175821888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142670016"/>
+        <c:axId val="175821888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6184,7 +6185,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142669440"/>
+        <c:crossAx val="175821312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6510,11 +6511,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142541376"/>
-        <c:axId val="142541952"/>
+        <c:axId val="175824192"/>
+        <c:axId val="175710208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142541376"/>
+        <c:axId val="175824192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -6548,12 +6549,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142541952"/>
+        <c:crossAx val="175710208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142541952"/>
+        <c:axId val="175710208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6590,7 +6591,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142541376"/>
+        <c:crossAx val="175824192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6859,11 +6860,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142544256"/>
-        <c:axId val="142544832"/>
+        <c:axId val="175712512"/>
+        <c:axId val="175713088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142544256"/>
+        <c:axId val="175712512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -6897,12 +6898,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142544832"/>
+        <c:crossAx val="175713088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142544832"/>
+        <c:axId val="175713088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -6941,7 +6942,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142544256"/>
+        <c:crossAx val="175712512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7208,11 +7209,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142547136"/>
-        <c:axId val="142547712"/>
+        <c:axId val="175715392"/>
+        <c:axId val="175715968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142547136"/>
+        <c:axId val="175715392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7222,12 +7223,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142547712"/>
+        <c:crossAx val="175715968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142547712"/>
+        <c:axId val="175715968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7238,7 +7239,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142547136"/>
+        <c:crossAx val="175715392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7284,11 +7285,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ipb3-32b-he-121416-12172016'!$T$1:$T$2</c:f>
+              <c:f>'ipb3-32b-he-121416-12172016'!$W$1:$W$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>v1-v2 0.023459975</c:v>
+                  <c:v>v1-v2 0.00055037</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7315,7 +7316,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'ipb3-32b-he-121416-12172016'!$S$3:$S$31</c:f>
+              <c:f>'ipb3-32b-he-121416-12172016'!$V$3:$V$31</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="29"/>
@@ -7339,7 +7340,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'ipb3-32b-he-121416-12172016'!$T$3:$T$31</c:f>
+              <c:f>'ipb3-32b-he-121416-12172016'!$W$3:$W$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
@@ -7462,11 +7463,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="217306752"/>
-        <c:axId val="217307328"/>
+        <c:axId val="176751168"/>
+        <c:axId val="176751744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="217306752"/>
+        <c:axId val="176751168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="350"/>
@@ -7478,12 +7479,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217307328"/>
+        <c:crossAx val="176751744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="217307328"/>
+        <c:axId val="176751744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.4"/>
@@ -7495,7 +7496,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217306752"/>
+        <c:crossAx val="176751168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7942,11 +7943,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="219577088"/>
-        <c:axId val="219577664"/>
+        <c:axId val="176752320"/>
+        <c:axId val="176752896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="219577088"/>
+        <c:axId val="176752320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="350"/>
@@ -7958,12 +7959,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219577664"/>
+        <c:crossAx val="176752896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="219577664"/>
+        <c:axId val="176752896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="100"/>
@@ -7975,7 +7976,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219577088"/>
+        <c:crossAx val="176752320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8026,129 +8027,112 @@
             </a:ln>
           </c:spPr>
           <c:xVal>
-            <c:strRef>
-              <c:f>'ipb3-32b-he-12092016'!$A$1:$A$19</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>'ipb3-32b-he-121416-12172016'!$A$2:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>coreT</c:v>
+                  <c:v>150.015038275862</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150.0021262</c:v>
+                  <c:v>150.03261486206901</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>150.0000506</c:v>
+                  <c:v>150.00108762068999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150.0002177</c:v>
+                  <c:v>149.996862448276</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>150.0041799</c:v>
+                  <c:v>149.971903206897</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>150.0005562</c:v>
+                  <c:v>199.99647572413801</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>200.0069853</c:v>
+                  <c:v>200.04776000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>200.000653</c:v>
+                  <c:v>200.00161855172399</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>200.0052763</c:v>
+                  <c:v>200.005855724138</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>200.0010129</c:v>
+                  <c:v>199.96127375862099</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>199.9977948</c:v>
+                  <c:v>249.99396331034501</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>250.000886</c:v>
+                  <c:v>250.064629413793</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>249.9979658</c:v>
+                  <c:v>249.999463241379</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>250.000894</c:v>
+                  <c:v>249.998811448276</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>250.0000372</c:v>
+                  <c:v>249.940586</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>249.995094</c:v>
+                  <c:v>300.00095862069003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>300.0038778</c:v>
+                  <c:v>300.08206296551703</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>300.0002179</c:v>
+                  <c:v>299.99474465517198</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>300.0049512</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>300.01947441379298</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'ipb3-32b-he-12092016'!$R$1:$R$19</c:f>
+              <c:f>'ipb3-32b-he-121416-12172016'!$R$2:$R$20</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="1">
-                  <c:v>2.7373850223221155E-2</c:v>
+                  <c:v>1.9637001034482999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3261366422547303</c:v>
+                  <c:v>2.1926322758620991</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3273230694421332</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.0193697112908628</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0192264011700338</c:v>
+                  <c:v>2.2919126551723998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2051347730138726E-2</c:v>
+                  <c:v>2.221472896551699</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9743399462838163</c:v>
+                  <c:v>2.4689840344826983</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2050733771056112</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.4125186091679218</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.2391383224907701E-2</c:v>
+                  <c:v>2.5555058620688982</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.9320722764789033E-2</c:v>
+                  <c:v>2.8031241379310003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.6539443292163036</c:v>
+                  <c:v>2.9268993448275999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.7616676268792664</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.8546191106014156</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.8632242615854375E-2</c:v>
+                  <c:v>2.972035931034501</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6006105164450397E-2</c:v>
+                  <c:v>4.0701915172414012</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.687124100816463</c:v>
+                  <c:v>3.5516889310345015</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.6794133355503864</c:v>
+                  <c:v>3.6061467931035018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8163,36 +8147,37 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="191587456"/>
-        <c:axId val="191586880"/>
+        <c:axId val="176754624"/>
+        <c:axId val="176755200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="191587456"/>
+        <c:axId val="176754624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191586880"/>
+        <c:crossAx val="176755200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="191586880"/>
+        <c:axId val="176755200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy\ h:mm" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191587456"/>
+        <c:crossAx val="176754624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8847,11 +8832,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="140252800"/>
-        <c:axId val="140253376"/>
+        <c:axId val="200151552"/>
+        <c:axId val="200152128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="140252800"/>
+        <c:axId val="200151552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -8886,12 +8871,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140253376"/>
+        <c:crossAx val="200152128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="140253376"/>
+        <c:axId val="200152128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -8929,7 +8914,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140252800"/>
+        <c:crossAx val="200151552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8952,6 +8937,459 @@
 </file>
 
 <file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'DC-he-12092016'!$T$13:$T$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.1653001034481996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3302846206896</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8951769655171979</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'DC-he-12092016'!$U$13:$U$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.49208686908314953</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0012505286422517</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6950090647767573</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="176756928"/>
+        <c:axId val="176757504"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="176756928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="176757504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="176757504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="176756928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'DC-he-12092016'!$T$8:$T$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.288039931034497</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5165317586206974</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1422275862069</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'DC-he-12092016'!$U$8:$U$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.49226688243377731</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0008991305895643</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6948474710556289</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="177226304"/>
+        <c:axId val="177226880"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="177226304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="177226880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="177226880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="177226304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'DC-he-12092016'!$A$2:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>150.00212617241399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150.000050551724</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150.000217724138</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150.00417989655199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150.000556241379</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200.00698531034499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200.000653</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200.00527634482799</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200.00101286206899</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>199.997794793103</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>250.00088603448299</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>249.99796575862101</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>250.00089399999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>250.000037241379</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>249.99509399999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>300.003877758621</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>300.00021789655199</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>300.00495124137899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'DC-he-12092016'!$S$2:$S$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="1">
+                  <c:v>0.21089127788239301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21087508001925351</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2162708562222761</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21627716829628776</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23589009528313801</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23791486487075958</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.24052814797124883</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.26431942423004151</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.26600571029069175</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.26818275713699619</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.29787621528147962</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.29939272534655809</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="177228608"/>
+        <c:axId val="177229184"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="177228608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="177229184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="177229184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="177228608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9050,11 +9488,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="163841152"/>
-        <c:axId val="161561920"/>
+        <c:axId val="177232064"/>
+        <c:axId val="177232640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="163841152"/>
+        <c:axId val="177232064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9064,12 +9502,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161561920"/>
+        <c:crossAx val="177232640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="161561920"/>
+        <c:axId val="177232640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9080,7 +9518,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163841152"/>
+        <c:crossAx val="177232064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9102,7 +9540,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9345,11 +9783,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="217302720"/>
-        <c:axId val="217302144"/>
+        <c:axId val="176890432"/>
+        <c:axId val="176891008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="217302720"/>
+        <c:axId val="176890432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9359,12 +9797,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217302144"/>
+        <c:crossAx val="176891008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="217302144"/>
+        <c:axId val="176891008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9375,7 +9813,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217302720"/>
+        <c:crossAx val="176890432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9661,11 +10099,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="141387456"/>
-        <c:axId val="141388032"/>
+        <c:axId val="174203456"/>
+        <c:axId val="174204032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="141387456"/>
+        <c:axId val="174203456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150"/>
@@ -9696,12 +10134,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141388032"/>
+        <c:crossAx val="174204032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="141388032"/>
+        <c:axId val="174204032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -9740,7 +10178,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141387456"/>
+        <c:crossAx val="174203456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9984,11 +10422,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="141390336"/>
-        <c:axId val="141390912"/>
+        <c:axId val="174206336"/>
+        <c:axId val="174206912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="141390336"/>
+        <c:axId val="174206336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="350"/>
@@ -10019,12 +10457,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141390912"/>
+        <c:crossAx val="174206912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="141390912"/>
+        <c:axId val="174206912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="45"/>
@@ -10063,7 +10501,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141390336"/>
+        <c:crossAx val="174206336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10257,11 +10695,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="141392640"/>
-        <c:axId val="141393216"/>
+        <c:axId val="174208640"/>
+        <c:axId val="174209216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="141392640"/>
+        <c:axId val="174208640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="350"/>
@@ -10292,12 +10730,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141393216"/>
+        <c:crossAx val="174209216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="141393216"/>
+        <c:axId val="174209216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="45"/>
@@ -10336,7 +10774,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141392640"/>
+        <c:crossAx val="174208640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10617,11 +11055,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="141182080"/>
-        <c:axId val="141182656"/>
+        <c:axId val="174743552"/>
+        <c:axId val="174744128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="141182080"/>
+        <c:axId val="174743552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150"/>
@@ -10653,13 +11091,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141182656"/>
+        <c:crossAx val="174744128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="141182656"/>
+        <c:axId val="174744128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -10698,7 +11136,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141182080"/>
+        <c:crossAx val="174743552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11060,11 +11498,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="141184960"/>
-        <c:axId val="141185536"/>
+        <c:axId val="174746432"/>
+        <c:axId val="174747008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="141184960"/>
+        <c:axId val="174746432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -11099,12 +11537,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141185536"/>
+        <c:crossAx val="174747008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="141185536"/>
+        <c:axId val="174747008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -11143,7 +11581,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141184960"/>
+        <c:crossAx val="174746432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11718,11 +12156,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="141648448"/>
-        <c:axId val="141649024"/>
+        <c:axId val="174751040"/>
+        <c:axId val="175128576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="141648448"/>
+        <c:axId val="174751040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -11734,12 +12172,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141649024"/>
+        <c:crossAx val="175128576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="141649024"/>
+        <c:axId val="175128576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="45"/>
@@ -11752,7 +12190,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141648448"/>
+        <c:crossAx val="174751040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12237,15 +12675,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1133475</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12298,16 +12736,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12632,16 +13070,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>138111</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>300036</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12663,13 +13101,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>414337</xdr:colOff>
+      <xdr:colOff>338137</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
@@ -12690,6 +13128,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12697,20 +13165,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>242887</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>547687</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -12725,6 +13193,66 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12732,14 +13260,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>442912</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>452437</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>138112</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -13082,7 +13610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
@@ -13964,8 +14492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU26"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16809,6 +17337,10 @@
         <f t="shared" si="0"/>
         <v>41.272269448276006</v>
       </c>
+      <c r="K22" s="3">
+        <f>31*20/60</f>
+        <v>10.333333333333334</v>
+      </c>
       <c r="N22" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -17407,8 +17939,8 @@
   <dimension ref="A1:AQ103"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T118" sqref="T118"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27990,7 +28522,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P26" sqref="P26"/>
+      <selection pane="bottomLeft" activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37028,19 +37560,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V31"/>
+  <dimension ref="A1:Y31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="17" max="17" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="2"/>
+    <col min="18" max="18" width="15.85546875" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>72</v>
       </c>
@@ -37092,11 +37625,11 @@
       <c r="Q1" t="s">
         <v>34</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>150.015038275862</v>
       </c>
@@ -37148,12 +37681,17 @@
       <c r="Q2" s="1">
         <v>42718.682372685187</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="1"/>
+      <c r="S2">
         <f>H2-I2</f>
         <v>2.3459975422427004E-2</v>
       </c>
+      <c r="T2">
+        <f>S2^2</f>
+        <v>5.5037044682087913E-4</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>150.03261486206901</v>
       </c>
@@ -37205,28 +37743,36 @@
       <c r="Q3" s="1">
         <v>42718.703206018516</v>
       </c>
-      <c r="R3">
-        <f t="shared" ref="R3:R31" si="0">H3-I3</f>
+      <c r="R3" s="3">
+        <f>$F$2-F3</f>
+        <v>1.9637001034482999</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S31" si="0">H3-I3</f>
         <v>0.61149077976192956</v>
       </c>
-      <c r="S3" s="2">
+      <c r="T3">
+        <f t="shared" ref="T3:T31" si="1">S3^2</f>
+        <v>0.37392097373385264</v>
+      </c>
+      <c r="V3" s="2">
         <f>A3</f>
         <v>150.03261486206901</v>
       </c>
-      <c r="T3">
-        <f>R3</f>
+      <c r="W3">
+        <f>S3</f>
         <v>0.61149077976192956</v>
       </c>
-      <c r="U3">
+      <c r="X3">
         <f>B3</f>
         <v>126.288808137931</v>
       </c>
-      <c r="V3">
-        <f>T3^2</f>
+      <c r="Y3">
+        <f>W3^2</f>
         <v>0.37392097373385264</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>150.00108762068999</v>
       </c>
@@ -37278,16 +37824,24 @@
       <c r="Q4" s="1">
         <v>42718.744872685187</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="3">
+        <f t="shared" ref="R4:R5" si="2">$F$2-F4</f>
+        <v>2.1926322758620991</v>
+      </c>
+      <c r="S4">
         <f t="shared" si="0"/>
         <v>0.61729869461079012</v>
       </c>
       <c r="T4">
-        <f>R4</f>
+        <f t="shared" si="1"/>
+        <v>0.38105767836818555</v>
+      </c>
+      <c r="W4">
+        <f>S4</f>
         <v>0.61729869461079012</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>149.996862448276</v>
       </c>
@@ -37339,12 +37893,20 @@
       <c r="Q5" s="1">
         <v>42718.765706018516</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="3">
+        <f t="shared" si="2"/>
+        <v>2.2919126551723998</v>
+      </c>
+      <c r="S5">
         <f t="shared" si="0"/>
         <v>0.61605408333334033</v>
       </c>
+      <c r="T5">
+        <f t="shared" si="1"/>
+        <v>0.37952263359168226</v>
+      </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>149.971903206897</v>
       </c>
@@ -37396,12 +37958,17 @@
       <c r="Q6" s="1">
         <v>42718.786539351851</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="1"/>
+      <c r="S6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="T6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>199.99647572413801</v>
       </c>
@@ -37453,12 +38020,17 @@
       <c r="Q7" s="1">
         <v>42718.869872685187</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="1"/>
+      <c r="S7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="T7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>200.04776000000001</v>
       </c>
@@ -37510,24 +38082,32 @@
       <c r="Q8" s="1">
         <v>42718.890706018516</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="3">
+        <f>$F$7-F8</f>
+        <v>2.221472896551699</v>
+      </c>
+      <c r="S8">
         <f t="shared" si="0"/>
         <v>0.71605019047618867</v>
       </c>
-      <c r="S8" s="2">
+      <c r="T8">
+        <f t="shared" si="1"/>
+        <v>0.51272787528098607</v>
+      </c>
+      <c r="V8" s="2">
         <f>A8</f>
         <v>200.04776000000001</v>
       </c>
-      <c r="T8">
-        <f>R8</f>
+      <c r="W8">
+        <f>S8</f>
         <v>0.71605019047618867</v>
       </c>
-      <c r="U8">
+      <c r="X8">
         <f>B8</f>
         <v>170.717788137931</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>200.00161855172399</v>
       </c>
@@ -37579,16 +38159,24 @@
       <c r="Q9" s="1">
         <v>42718.932372685187</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="3">
+        <f t="shared" ref="R9:R10" si="3">$F$7-F9</f>
+        <v>2.4689840344826983</v>
+      </c>
+      <c r="S9">
         <f t="shared" si="0"/>
         <v>0.72904560778444072</v>
       </c>
       <c r="T9">
-        <f>R9</f>
+        <f t="shared" si="1"/>
+        <v>0.5315074982297846</v>
+      </c>
+      <c r="W9">
+        <f>S9</f>
         <v>0.72904560778444072</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>200.005855724138</v>
       </c>
@@ -37640,12 +38228,20 @@
       <c r="Q10" s="1">
         <v>42718.953206018516</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="3">
+        <f t="shared" si="3"/>
+        <v>2.5555058620688982</v>
+      </c>
+      <c r="S10">
         <f t="shared" si="0"/>
         <v>0.7213631190476093</v>
       </c>
+      <c r="T10">
+        <f t="shared" si="1"/>
+        <v>0.52036474952209533</v>
+      </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>199.96127375862099</v>
       </c>
@@ -37697,12 +38293,17 @@
       <c r="Q11" s="1">
         <v>42718.974039351851</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="1"/>
+      <c r="S11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="T11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>249.99396331034501</v>
       </c>
@@ -37754,12 +38355,17 @@
       <c r="Q12" s="1">
         <v>42719.057372685187</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="1"/>
+      <c r="S12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="T12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>250.064629413793</v>
       </c>
@@ -37811,24 +38417,32 @@
       <c r="Q13" s="1">
         <v>42719.078206018516</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="3">
+        <f>$F$12-F13</f>
+        <v>2.8031241379310003</v>
+      </c>
+      <c r="S13">
         <f t="shared" si="0"/>
         <v>0.86084260714284966</v>
       </c>
-      <c r="S13" s="2">
+      <c r="T13">
+        <f t="shared" si="1"/>
+        <v>0.74104999427249862</v>
+      </c>
+      <c r="V13" s="2">
         <f>A13</f>
         <v>250.064629413793</v>
       </c>
-      <c r="T13">
-        <f>R13</f>
+      <c r="W13">
+        <f>S13</f>
         <v>0.86084260714284966</v>
       </c>
-      <c r="U13">
+      <c r="X13">
         <f>B13</f>
         <v>215.354825172414</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>249.999463241379</v>
       </c>
@@ -37880,16 +38494,24 @@
       <c r="Q14" s="1">
         <v>42719.119872685187</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="3">
+        <f t="shared" ref="R14:R15" si="4">$F$12-F14</f>
+        <v>2.9268993448275999</v>
+      </c>
+      <c r="S14">
         <f t="shared" si="0"/>
         <v>0.86814035628742925</v>
       </c>
       <c r="T14">
-        <f>R14</f>
+        <f t="shared" si="1"/>
+        <v>0.75366767821486458</v>
+      </c>
+      <c r="W14">
+        <f>S14</f>
         <v>0.86814035628742925</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>249.998811448276</v>
       </c>
@@ -37941,12 +38563,20 @@
       <c r="Q15" s="1">
         <v>42719.140706018516</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="3">
+        <f t="shared" si="4"/>
+        <v>2.972035931034501</v>
+      </c>
+      <c r="S15">
         <f t="shared" si="0"/>
         <v>0.85017827380952937</v>
       </c>
+      <c r="T15">
+        <f t="shared" si="1"/>
+        <v>0.72280309725775105</v>
+      </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>249.940586</v>
       </c>
@@ -37998,12 +38628,17 @@
       <c r="Q16" s="1">
         <v>42719.161539351851</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="1"/>
+      <c r="S16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="T16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>300.00095862069003</v>
       </c>
@@ -38055,12 +38690,17 @@
       <c r="Q17" s="1">
         <v>42719.244872685187</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="1"/>
+      <c r="S17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="T17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>300.08206296551703</v>
       </c>
@@ -38112,24 +38752,32 @@
       <c r="Q18" s="1">
         <v>42719.265706018516</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="3">
+        <f>$F$17-F18</f>
+        <v>4.0701915172414012</v>
+      </c>
+      <c r="S18">
         <f t="shared" si="0"/>
         <v>1.0313060238095115</v>
       </c>
-      <c r="S18" s="2">
+      <c r="T18">
+        <f t="shared" si="1"/>
+        <v>1.0635921147457847</v>
+      </c>
+      <c r="V18" s="2">
         <f>A18</f>
         <v>300.08206296551703</v>
       </c>
-      <c r="T18">
-        <f>R18</f>
+      <c r="W18">
+        <f>S18</f>
         <v>1.0313060238095115</v>
       </c>
-      <c r="U18">
+      <c r="X18">
         <f>B18</f>
         <v>261.820544965517</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>299.99474465517198</v>
       </c>
@@ -38181,16 +38829,24 @@
       <c r="Q19" s="1">
         <v>42719.307372685187</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="3">
+        <f t="shared" ref="R19:R20" si="5">$F$17-F19</f>
+        <v>3.5516889310345015</v>
+      </c>
+      <c r="S19">
         <f t="shared" si="0"/>
         <v>1.0511152095808409</v>
       </c>
       <c r="T19">
-        <f>R19</f>
+        <f t="shared" si="1"/>
+        <v>1.1048431838121751</v>
+      </c>
+      <c r="W19">
+        <f>S19</f>
         <v>1.0511152095808409</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>300.01947441379298</v>
       </c>
@@ -38242,12 +38898,20 @@
       <c r="Q20" s="1">
         <v>42719.328206018516</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="3">
+        <f t="shared" si="5"/>
+        <v>3.6061467931035018</v>
+      </c>
+      <c r="S20">
         <f t="shared" si="0"/>
         <v>1.0351733452381087</v>
       </c>
+      <c r="T20">
+        <f t="shared" si="1"/>
+        <v>1.0715838546914564</v>
+      </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>299.90829148275901</v>
       </c>
@@ -38299,12 +38963,17 @@
       <c r="Q21" s="1">
         <v>42719.349039351851</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="1"/>
+      <c r="S21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="T21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>350.12708789655198</v>
       </c>
@@ -38356,12 +39025,17 @@
       <c r="Q22" s="1">
         <v>42719.432476851849</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="1"/>
+      <c r="S22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="T22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>351.11302237931</v>
       </c>
@@ -38413,24 +39087,32 @@
       <c r="Q23" s="1">
         <v>42719.453321759262</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="3">
+        <f>$F$22-F23</f>
+        <v>11.0076627931034</v>
+      </c>
+      <c r="S23">
         <f t="shared" si="0"/>
         <v>1.1156876666666697</v>
       </c>
-      <c r="S23" s="2">
+      <c r="T23">
+        <f t="shared" si="1"/>
+        <v>1.244758969552118</v>
+      </c>
+      <c r="V23" s="2">
         <f>A23</f>
         <v>351.11302237931</v>
       </c>
-      <c r="T23">
-        <f>R23</f>
+      <c r="W23">
+        <f>S23</f>
         <v>1.1156876666666697</v>
       </c>
-      <c r="U23">
+      <c r="X23">
         <f>B23</f>
         <v>312.541808</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>348.88156237931003</v>
       </c>
@@ -38482,16 +39164,24 @@
       <c r="Q24" s="1">
         <v>42719.494976851849</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="3">
+        <f t="shared" ref="R24:R25" si="6">$F$22-F24</f>
+        <v>6.0524598965517029</v>
+      </c>
+      <c r="S24">
         <f t="shared" si="0"/>
         <v>1.1010765808383303</v>
       </c>
       <c r="T24">
-        <f>R24</f>
+        <f t="shared" si="1"/>
+        <v>1.212369636870628</v>
+      </c>
+      <c r="W24">
+        <f>S24</f>
         <v>1.1010765808383303</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>351.05023720689701</v>
       </c>
@@ -38543,12 +39233,20 @@
       <c r="Q25" s="1">
         <v>42719.515821759262</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="3">
+        <f t="shared" si="6"/>
+        <v>7.517619103448304</v>
+      </c>
+      <c r="S25">
         <f t="shared" si="0"/>
         <v>1.1193786233766208</v>
       </c>
+      <c r="T25">
+        <f t="shared" si="1"/>
+        <v>1.2530085024725386</v>
+      </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>349.57632131034501</v>
       </c>
@@ -38600,12 +39298,17 @@
       <c r="Q26" s="1">
         <v>42719.53665509259</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="1"/>
+      <c r="S26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="T26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>391.63385448275898</v>
       </c>
@@ -38657,12 +39360,17 @@
       <c r="Q27" s="1">
         <v>42719.576932870368</v>
       </c>
-      <c r="R27">
+      <c r="R27" s="1"/>
+      <c r="S27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="T27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>336.781459448276</v>
       </c>
@@ -38714,12 +39422,17 @@
       <c r="Q28" s="1">
         <v>42719.583645833336</v>
       </c>
-      <c r="R28">
+      <c r="R28" s="1"/>
+      <c r="S28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="T28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>349.988029758621</v>
       </c>
@@ -38771,12 +39484,17 @@
       <c r="Q29" s="1">
         <v>42719.625428240739</v>
       </c>
-      <c r="R29">
+      <c r="R29" s="1"/>
+      <c r="S29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="T29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>348.92529303448299</v>
       </c>
@@ -38828,12 +39546,17 @@
       <c r="Q30" s="1">
         <v>42719.646261574075</v>
       </c>
-      <c r="R30">
+      <c r="R30" s="1"/>
+      <c r="S30">
         <f t="shared" si="0"/>
         <v>1.0997529523809497</v>
       </c>
+      <c r="T30">
+        <f t="shared" si="1"/>
+        <v>1.2094565562706154</v>
+      </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>351.31368072413801</v>
       </c>
@@ -38885,9 +39608,14 @@
       <c r="Q31" s="1">
         <v>42719.687928240739</v>
       </c>
-      <c r="R31">
+      <c r="R31" s="1"/>
+      <c r="S31">
         <f t="shared" si="0"/>
         <v>1.0943080748503</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="1"/>
+        <v>1.1975101626825699</v>
       </c>
     </row>
   </sheetData>
@@ -38898,18 +39626,21 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" activeCellId="1" sqref="A1:A1048576 R1:R1048576"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>72</v>
       </c>
@@ -38961,8 +39692,14 @@
       <c r="Q1" t="s">
         <v>34</v>
       </c>
+      <c r="R1" t="s">
+        <v>83</v>
+      </c>
+      <c r="S1" s="30" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>150.00212617241399</v>
       </c>
@@ -39018,8 +39755,12 @@
         <f>K2/L2</f>
         <v>2.7373850223221155E-2</v>
       </c>
+      <c r="U2">
+        <f>L2^2</f>
+        <v>6.0978326812128457E-5</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>150.000050551724</v>
       </c>
@@ -39075,8 +39816,20 @@
         <f t="shared" ref="R3:R19" si="0">K3/L3</f>
         <v>3.3261366422547303</v>
       </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S19" si="1">L3^2/K3</f>
+        <v>0.21089127788239301</v>
+      </c>
+      <c r="T3">
+        <f>$F$2-F3</f>
+        <v>1.3283086551723997</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U19" si="2">L3^2</f>
+        <v>0.49203660146545697</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>150.000217724138</v>
       </c>
@@ -39132,8 +39885,20 @@
         <f t="shared" si="0"/>
         <v>3.3273230694421332</v>
       </c>
+      <c r="S4">
+        <f t="shared" si="1"/>
+        <v>0.21087508001925351</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ref="T4:T6" si="3">$F$2-F4</f>
+        <v>1.3332318275862001</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="2"/>
+        <v>0.49231204683726809</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>150.00417989655199</v>
       </c>
@@ -39189,8 +39954,20 @@
         <f t="shared" si="0"/>
         <v>6.0193697112908628</v>
       </c>
+      <c r="S5">
+        <f t="shared" si="1"/>
+        <v>0.2162708562222761</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="3"/>
+        <v>4.3078510689654994</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="2"/>
+        <v>1.694720319057988</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>150.000556241379</v>
       </c>
@@ -39246,8 +40023,20 @@
         <f t="shared" si="0"/>
         <v>6.0192264011700338</v>
       </c>
+      <c r="S6">
+        <f t="shared" si="1"/>
+        <v>0.21627716829628776</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="3"/>
+        <v>4.3348549310344495</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="2"/>
+        <v>1.6947385445063676</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>200.00698531034499</v>
       </c>
@@ -39303,8 +40092,12 @@
         <f t="shared" si="0"/>
         <v>2.2051347730138726E-2</v>
       </c>
+      <c r="U7">
+        <f t="shared" si="2"/>
+        <v>5.653257621947866E-5</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>200.000653</v>
       </c>
@@ -39360,8 +40153,20 @@
         <f t="shared" si="0"/>
         <v>2.9743399462838163</v>
       </c>
+      <c r="S8">
+        <f t="shared" si="1"/>
+        <v>0.23589009528313801</v>
+      </c>
+      <c r="T8">
+        <f>$F$7-F8</f>
+        <v>1.288039931034497</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="2"/>
+        <v>0.49226688243377731</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>200.00527634482799</v>
       </c>
@@ -39417,8 +40222,20 @@
         <f t="shared" si="0"/>
         <v>4.2050733771056112</v>
       </c>
+      <c r="S9">
+        <f t="shared" si="1"/>
+        <v>0.23791486487075958</v>
+      </c>
+      <c r="T9">
+        <f t="shared" ref="T9:T10" si="4">$F$7-F9</f>
+        <v>2.5165317586206974</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="2"/>
+        <v>1.0008991305895643</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>200.00101286206899</v>
       </c>
@@ -39474,8 +40291,20 @@
         <f t="shared" si="0"/>
         <v>5.4125186091679218</v>
       </c>
+      <c r="S10">
+        <f t="shared" si="1"/>
+        <v>0.24052814797124883</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="4"/>
+        <v>4.1422275862069</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="2"/>
+        <v>1.6948474710556289</v>
+      </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>199.997794793103</v>
       </c>
@@ -39531,8 +40360,12 @@
         <f t="shared" si="0"/>
         <v>2.2391383224907701E-2</v>
       </c>
+      <c r="U11">
+        <f t="shared" si="2"/>
+        <v>5.8220715062499997E-5</v>
+      </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>250.00088603448299</v>
       </c>
@@ -39588,8 +40421,12 @@
         <f t="shared" si="0"/>
         <v>1.9320722764789033E-2</v>
       </c>
+      <c r="U12">
+        <f t="shared" si="2"/>
+        <v>5.9651348897959164E-5</v>
+      </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>249.99796575862101</v>
       </c>
@@ -39645,8 +40482,20 @@
         <f t="shared" si="0"/>
         <v>2.6539443292163036</v>
       </c>
+      <c r="S13">
+        <f t="shared" si="1"/>
+        <v>0.26431942423004151</v>
+      </c>
+      <c r="T13">
+        <f>$F$12-F13</f>
+        <v>1.1653001034481996</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="2"/>
+        <v>0.49208686908314953</v>
+      </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>250.00089399999999</v>
       </c>
@@ -39702,8 +40551,20 @@
         <f t="shared" si="0"/>
         <v>3.7616676268792664</v>
       </c>
+      <c r="S14">
+        <f t="shared" si="1"/>
+        <v>0.26600571029069175</v>
+      </c>
+      <c r="T14">
+        <f t="shared" ref="T14:T15" si="5">$F$12-F14</f>
+        <v>2.3302846206896</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="2"/>
+        <v>1.0012505286422517</v>
+      </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>250.000037241379</v>
       </c>
@@ -39759,8 +40620,20 @@
         <f t="shared" si="0"/>
         <v>4.8546191106014156</v>
       </c>
+      <c r="S15">
+        <f t="shared" si="1"/>
+        <v>0.26818275713699619</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="5"/>
+        <v>3.8951769655171979</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="2"/>
+        <v>1.6950090647767573</v>
+      </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>249.99509399999999</v>
       </c>
@@ -39816,8 +40689,12 @@
         <f t="shared" si="0"/>
         <v>1.8632242615854375E-2</v>
       </c>
+      <c r="U16">
+        <f t="shared" si="2"/>
+        <v>5.8659752794292521E-5</v>
+      </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>300.003877758621</v>
       </c>
@@ -39873,8 +40750,12 @@
         <f t="shared" si="0"/>
         <v>1.6006105164450397E-2</v>
       </c>
+      <c r="U17">
+        <f t="shared" si="2"/>
+        <v>5.9459521E-5</v>
+      </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>300.00021789655199</v>
       </c>
@@ -39930,8 +40811,20 @@
         <f t="shared" si="0"/>
         <v>2.687124100816463</v>
       </c>
+      <c r="S18">
+        <f t="shared" si="1"/>
+        <v>0.29787621528147962</v>
+      </c>
+      <c r="T18">
+        <f>$F$17-F18</f>
+        <v>1.3885655862069015</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="2"/>
+        <v>0.64068875663584168</v>
+      </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>300.00495124137899</v>
       </c>
@@ -39986,6 +40879,18 @@
       <c r="R19">
         <f t="shared" si="0"/>
         <v>3.6794133355503864</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="1"/>
+        <v>0.29939272534655809</v>
+      </c>
+      <c r="T19">
+        <f>$F$17-F19</f>
+        <v>2.6174720689655047</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="2"/>
+        <v>1.2134996164394893</v>
       </c>
     </row>
   </sheetData>
@@ -40004,6 +40909,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="17" max="17" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -40291,11 +41197,11 @@
         <v>0.47210810714286922</v>
       </c>
       <c r="S5" s="2">
-        <f t="shared" ref="S4:S32" si="1">A5</f>
+        <f t="shared" ref="S5:S26" si="1">A5</f>
         <v>149.97214265517201</v>
       </c>
       <c r="T5">
-        <f t="shared" ref="T4:T32" si="2">R5</f>
+        <f t="shared" ref="T5:T27" si="2">R5</f>
         <v>0.47210810714286922</v>
       </c>
       <c r="U5">
